--- a/C班内部設計書.xlsx
+++ b/C班内部設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyama\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\iwase\Documents\GitHub\-A-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1148,33 +1148,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1211,6 +1184,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,15 +1245,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7891,10 +7891,10 @@
       <c r="O1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="73">
+      <c r="P1" s="64">
         <v>42538</v>
       </c>
-      <c r="Q1" s="74"/>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
@@ -7911,11 +7911,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="76"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="67"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
@@ -7960,17 +7960,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -7981,15 +7981,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -8000,15 +8000,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -8056,19 +8056,19 @@
       <c r="A10" s="40"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="41"/>
@@ -8077,17 +8077,17 @@
       <c r="A11" s="40"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="41"/>
@@ -8096,17 +8096,17 @@
       <c r="A12" s="40"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="41"/>
@@ -8116,17 +8116,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -8137,15 +8137,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -8156,15 +8156,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -8175,15 +8175,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -8194,15 +8194,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -8233,15 +8233,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
       <c r="M19" s="37"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -8254,13 +8254,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
       <c r="M20" s="37"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -8273,13 +8273,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
       <c r="M21" s="37"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -8292,13 +8292,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
       <c r="M22" s="37"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -8311,13 +8311,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
       <c r="M23" s="37"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -8330,13 +8330,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
       <c r="M24" s="37"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -8349,13 +8349,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
       <c r="M25" s="37"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -8411,14 +8411,14 @@
       <c r="H28" s="2"/>
       <c r="I28" s="54"/>
       <c r="J28" s="53"/>
-      <c r="K28" s="70" t="s">
+      <c r="K28" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="72"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="63"/>
       <c r="Q28" s="41"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -8432,18 +8432,18 @@
       <c r="H29" s="2"/>
       <c r="I29" s="54"/>
       <c r="J29" s="53"/>
-      <c r="K29" s="64" t="s">
+      <c r="K29" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65" t="s">
+      <c r="L29" s="77"/>
+      <c r="M29" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65" t="s">
+      <c r="N29" s="77"/>
+      <c r="O29" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="68"/>
+      <c r="P29" s="80"/>
       <c r="Q29" s="41"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8457,12 +8457,12 @@
       <c r="H30" s="2"/>
       <c r="I30" s="54"/>
       <c r="J30" s="53"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="61"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="73"/>
       <c r="Q30" s="41"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8476,12 +8476,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="54"/>
       <c r="J31" s="53"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="61"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="73"/>
       <c r="Q31" s="41"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8495,12 +8495,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="54"/>
       <c r="J32" s="53"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="61"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="73"/>
       <c r="Q32" s="41"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8514,12 +8514,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="54"/>
       <c r="J33" s="53"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="61"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="73"/>
       <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8533,12 +8533,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="54"/>
       <c r="J34" s="53"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="61"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="73"/>
       <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8552,12 +8552,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="54"/>
       <c r="J35" s="53"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="63"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="75"/>
       <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -8581,6 +8581,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
+    <mergeCell ref="O29:P29"/>
     <mergeCell ref="F19:L25"/>
     <mergeCell ref="K28:P28"/>
     <mergeCell ref="P1:Q1"/>
@@ -8588,12 +8594,6 @@
     <mergeCell ref="E5:M7"/>
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
-    <mergeCell ref="O29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8627,25 +8627,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="89"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -8660,7 +8660,7 @@
       </c>
       <c r="P1" s="19">
         <f ca="1">TODAY()</f>
-        <v>42538</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8726,54 +8726,54 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="60" t="s">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="59"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="92" t="s">
+      <c r="M6" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="60" t="s">
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
       <c r="H7" s="59"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="92" t="s">
+      <c r="M7" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -9359,17 +9359,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9404,25 +9404,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="89"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="58" t="s">
         <v>2</v>
       </c>
@@ -9502,54 +9502,54 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="60" t="s">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
       <c r="L6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="60" t="s">
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
       <c r="H7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
       <c r="L7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -10134,17 +10134,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10164,7 +10164,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F9"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10179,25 +10179,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="89"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
@@ -10353,10 +10353,10 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="89"/>
       <c r="G9" s="26" t="s">
         <v>45</v>
       </c>
@@ -10366,9 +10366,9 @@
       <c r="I9" s="55">
         <v>1</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -10382,10 +10382,10 @@
         <f t="shared" ref="D10:D25" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="86"/>
+      <c r="F10" s="89"/>
       <c r="G10" s="55" t="s">
         <v>45</v>
       </c>
@@ -10393,9 +10393,9 @@
         <v>46</v>
       </c>
       <c r="I10" s="26"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -10409,10 +10409,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="86"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="55" t="s">
         <v>47</v>
       </c>
@@ -10420,9 +10420,9 @@
         <v>46</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -10436,10 +10436,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="86"/>
+      <c r="F12" s="89"/>
       <c r="G12" s="55" t="s">
         <v>47</v>
       </c>
@@ -10447,9 +10447,9 @@
         <v>46</v>
       </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="86"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -10463,10 +10463,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="86"/>
+      <c r="F13" s="89"/>
       <c r="G13" s="55" t="s">
         <v>47</v>
       </c>
@@ -10474,9 +10474,9 @@
         <v>46</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -10490,10 +10490,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="86"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="55" t="s">
         <v>47</v>
       </c>
@@ -10501,9 +10501,9 @@
         <v>46</v>
       </c>
       <c r="I14" s="26"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="86"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -10517,14 +10517,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="86"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="86"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -10538,14 +10538,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="86"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="86"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="2"/>
@@ -10559,14 +10559,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="86"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="89"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="86"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -10580,14 +10580,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="86"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="86"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -10601,14 +10601,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="86"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="86"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="89"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10622,14 +10622,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="89"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="86"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="89"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -10643,14 +10643,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="89"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="86"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -10664,14 +10664,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="84"/>
-      <c r="F22" s="86"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="89"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="86"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="89"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -10685,14 +10685,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="86"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="89"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="86"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="89"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -10706,14 +10706,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="86"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="89"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="86"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="89"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -10727,14 +10727,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="84"/>
-      <c r="F25" s="86"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="89"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="86"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="89"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -10976,25 +10976,12 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J9:L9"/>
@@ -11008,13 +10995,26 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/C班内部設計書.xlsx
+++ b/C班内部設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\iwase\Documents\GitHub\-A-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ishok\Documents\GitHub\-A-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="10410" tabRatio="732" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="10410" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'処理 (2)'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_内部!$A$1:$Q$36</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -453,22 +453,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サッカーチーム名</t>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NVARCHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NOT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SMALLINT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -479,47 +464,82 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>年度の選択</t>
+    <t>年度</t>
     <rPh sb="0" eb="2">
       <t>ネンド</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HOME・AWAYの選択</t>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
+    <t>節</t>
+    <rPh sb="0" eb="1">
+      <t>セツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HOMEの勝敗項目</t>
-    <rPh sb="5" eb="7">
-      <t>ショウハイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウモク</t>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>天気の選択</t>
+    <t>天気</t>
     <rPh sb="0" eb="2">
       <t>テンキ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦績ID</t>
+    <rPh sb="0" eb="2">
+      <t>センセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦表ID</t>
+    <rPh sb="0" eb="2">
+      <t>タイセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1438,8 +1458,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9648266" y="3955677"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="9597840" y="4029636"/>
+          <a:ext cx="750794" cy="447115"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -1727,7 +1747,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>節の選択</a:t>
+            <a:t>送信ボタン押下</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1737,13 +1757,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>121227</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142570</xdr:rowOff>
+      <xdr:colOff>119495</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>126027</xdr:colOff>
+      <xdr:colOff>124296</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>35417</xdr:rowOff>
     </xdr:to>
@@ -1757,8 +1777,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="2402593"/>
-          <a:ext cx="4800" cy="239210"/>
+          <a:off x="957695" y="2447620"/>
+          <a:ext cx="4801" cy="178597"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2129,13 +2149,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>735686</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>18912</xdr:rowOff>
+      <xdr:rowOff>17230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>26533</xdr:colOff>
+      <xdr:colOff>18689</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>61350</xdr:rowOff>
+      <xdr:rowOff>42300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2147,8 +2167,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7862627" y="2562647"/>
-          <a:ext cx="859671" cy="1050968"/>
+          <a:off x="7822286" y="2608030"/>
+          <a:ext cx="845103" cy="1053770"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2277,15 +2297,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>118081</xdr:colOff>
+      <xdr:colOff>108556</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>61350</xdr:rowOff>
+      <xdr:rowOff>42300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>719396</xdr:colOff>
+      <xdr:colOff>709871</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>160241</xdr:rowOff>
+      <xdr:rowOff>141191</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2294,8 +2314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8029434" y="3613615"/>
-          <a:ext cx="1385727" cy="435067"/>
+          <a:off x="7976206" y="3661800"/>
+          <a:ext cx="1382365" cy="441791"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2544,13 +2564,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>69272</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>39984</xdr:rowOff>
+      <xdr:rowOff>97134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142570</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28270</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2559,8 +2579,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="277090" y="1953643"/>
-          <a:ext cx="1350819" cy="448950"/>
+          <a:off x="278822" y="2002134"/>
+          <a:ext cx="1357746" cy="445486"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2713,13 +2733,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>476252</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>60613</xdr:rowOff>
+      <xdr:rowOff>108238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>346364</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>129886</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2728,8 +2748,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2086843" y="1974272"/>
-          <a:ext cx="649430" cy="415637"/>
+          <a:off x="2095502" y="2013238"/>
+          <a:ext cx="651162" cy="412173"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3035,15 +3055,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>121227</xdr:colOff>
+      <xdr:colOff>119495</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>154336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>121583</xdr:colOff>
+      <xdr:colOff>119851</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>39984</xdr:rowOff>
+      <xdr:rowOff>97134</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3055,8 +3075,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="952500" y="1721631"/>
-          <a:ext cx="356" cy="232012"/>
+          <a:off x="957695" y="1716436"/>
+          <a:ext cx="356" cy="285698"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3134,92 +3154,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>346362</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>112568</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2086841" y="4035136"/>
-          <a:ext cx="649430" cy="415637"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>勝率</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>8660</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>138494</xdr:rowOff>
+      <xdr:colOff>12594</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>13460</xdr:colOff>
+      <xdr:colOff>17319</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>31341</xdr:rowOff>
     </xdr:to>
@@ -3232,9 +3174,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3957205" y="2398517"/>
-          <a:ext cx="4800" cy="239210"/>
+        <a:xfrm flipH="1">
+          <a:off x="3974994" y="2434019"/>
+          <a:ext cx="4725" cy="188122"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3394,15 +3336,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>112568</xdr:colOff>
+      <xdr:colOff>122093</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>35908</xdr:rowOff>
+      <xdr:rowOff>83533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>684069</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>138494</xdr:rowOff>
+      <xdr:colOff>693594</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14669</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3411,8 +3353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3281795" y="1949567"/>
-          <a:ext cx="1350819" cy="448950"/>
+          <a:off x="3303443" y="1988533"/>
+          <a:ext cx="1352551" cy="445486"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3563,15 +3505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>355025</xdr:colOff>
+      <xdr:colOff>364550</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>39219</xdr:rowOff>
+      <xdr:rowOff>105894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>225137</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>108492</xdr:rowOff>
+      <xdr:colOff>234662</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3717</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3580,8 +3522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5082889" y="1952878"/>
-          <a:ext cx="649430" cy="415637"/>
+          <a:off x="5108000" y="2010894"/>
+          <a:ext cx="651162" cy="412173"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3887,15 +3829,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
+      <xdr:colOff>155202</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>114860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>6113</xdr:colOff>
+      <xdr:colOff>15638</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>35908</xdr:rowOff>
+      <xdr:rowOff>83533</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3906,8 +3848,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="997324" y="1770529"/>
-          <a:ext cx="2998083" cy="136761"/>
+          <a:off x="993402" y="1848410"/>
+          <a:ext cx="2984636" cy="140123"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3988,13 +3930,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>17318</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>91277</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476252</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>148427</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4005,9 +3947,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1627909" y="2178118"/>
-          <a:ext cx="458934" cy="3973"/>
+        <a:xfrm flipV="1">
+          <a:off x="1636568" y="2219325"/>
+          <a:ext cx="458934" cy="5552"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4135,66 +4077,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>34844</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>77932</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>78999</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="230" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="81" idx="3"/>
-          <a:endCxn id="182" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1645435" y="4242955"/>
-          <a:ext cx="441406" cy="1067"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>69273</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>8659</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>606135</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
+      <xdr:rowOff>48490</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4203,8 +4095,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="484909" y="4693227"/>
-          <a:ext cx="952499" cy="597477"/>
+          <a:off x="488373" y="4618759"/>
+          <a:ext cx="955962" cy="592281"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -4251,7 +4143,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>17317</xdr:colOff>
+      <xdr:colOff>36367</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>25977</xdr:rowOff>
     </xdr:from>
@@ -4263,7 +4155,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="640772" y="4883727"/>
+          <a:off x="665017" y="4845627"/>
           <a:ext cx="646331" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4304,15 +4196,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>125660</xdr:colOff>
+      <xdr:colOff>123929</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>140680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>129886</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>8659</xdr:rowOff>
+      <xdr:colOff>128154</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142009</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4324,8 +4216,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="956933" y="4478885"/>
-          <a:ext cx="4226" cy="214342"/>
+          <a:off x="962129" y="4445980"/>
+          <a:ext cx="4225" cy="172779"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4356,13 +4248,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>69274</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
+      <xdr:rowOff>12989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28034</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>106045</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4371,8 +4263,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="277092" y="5533159"/>
-          <a:ext cx="1361533" cy="469727"/>
+          <a:off x="278824" y="5346989"/>
+          <a:ext cx="1368460" cy="464531"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -4415,7 +4307,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>送信成功画面の表示</a:t>
+            <a:t>勝利・敗北の表示</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -4432,15 +4324,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>126586</xdr:colOff>
+      <xdr:colOff>124854</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
+      <xdr:rowOff>48490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>129886</xdr:colOff>
+      <xdr:colOff>128154</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
+      <xdr:rowOff>12989</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4452,8 +4344,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="957859" y="5290704"/>
-          <a:ext cx="3300" cy="242455"/>
+          <a:off x="963054" y="5211040"/>
+          <a:ext cx="3300" cy="135949"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4481,405 +4373,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43296</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>251110</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>112569</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="274" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5108862" y="4035137"/>
-          <a:ext cx="649430" cy="415637"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>勝率</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>701595</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>74923</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>77933</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="275" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="210" idx="3"/>
-          <a:endCxn id="274" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4650140" y="4239946"/>
-          <a:ext cx="458722" cy="3010"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>320385</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>493566</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>77932</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="276" name="ひし形 275"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3489612" y="4684569"/>
-          <a:ext cx="952499" cy="597477"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476248</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>25977</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="646331" cy="242374"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="277" name="テキスト ボックス 276"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3645475" y="4883727"/>
-          <a:ext cx="646331" cy="242374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>勝敗予想</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>13093</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>606135</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>136604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>17317</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>12227</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="278" name="カギ線コネクタ 137"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="210" idx="2"/>
-          <a:endCxn id="276" idx="0"/>
+          <a:endCxn id="234" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3961638" y="4474809"/>
-          <a:ext cx="4224" cy="209760"/>
+        <a:xfrm rot="5400000">
+          <a:off x="2472983" y="3413256"/>
+          <a:ext cx="472996" cy="2530292"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>112568</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>164524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>694783</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114705</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="279" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3281795" y="5541819"/>
-          <a:ext cx="1361533" cy="469727"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信成功画面表示の表示</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>14017</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>77932</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>17317</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>164524</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="280" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="276" idx="2"/>
-          <a:endCxn id="279" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3962562" y="5282046"/>
-          <a:ext cx="3300" cy="259773"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -5087,15 +4605,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>684069</xdr:colOff>
+      <xdr:colOff>693594</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>73856</xdr:rowOff>
+      <xdr:rowOff>134826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>355025</xdr:colOff>
+      <xdr:colOff>364550</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>87201</xdr:rowOff>
+      <xdr:rowOff>140531</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5106,9 +4624,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4632614" y="2160697"/>
-          <a:ext cx="450275" cy="13345"/>
+        <a:xfrm>
+          <a:off x="4655994" y="2211276"/>
+          <a:ext cx="452006" cy="5705"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5134,6 +4652,240 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>58017</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>170584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16777</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="267567" y="6018934"/>
+          <a:ext cx="1368460" cy="464531"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>送信成功画面の表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>113597</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>124854</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>170584</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="240" idx="2"/>
+          <a:endCxn id="58" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="951797" y="5811520"/>
+          <a:ext cx="11257" cy="207414"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752776</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69617</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="693267" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3153076" y="1631717"/>
+          <a:ext cx="693267" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>アウェイ側</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95551</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60092</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="630109" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="305101" y="1793642"/>
+          <a:ext cx="630109" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>ホーム側</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5308,8 +5060,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9669278" y="3924861"/>
-          <a:ext cx="750794" cy="432828"/>
+          <a:off x="9597840" y="4029636"/>
+          <a:ext cx="750794" cy="447115"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -5536,25 +5288,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>35719</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>183357</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>92729</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="フローチャート : 手操作入力 26"/>
+        <xdr:cNvPr id="41" name="フローチャート : 手操作入力 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="250032" y="1238249"/>
-          <a:ext cx="1393031" cy="416719"/>
+          <a:off x="392907" y="1446958"/>
+          <a:ext cx="1092993" cy="379321"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -5597,7 +5349,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>年度の選択</a:t>
+            <a:t>送信ボタン押下</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -5614,685 +5366,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>35719</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>21012</xdr:rowOff>
+      <xdr:colOff>40482</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>773907</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>46227</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="フローチャート : 手操作入力 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="250032" y="1878387"/>
-          <a:ext cx="1381125" cy="358590"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>節の選択</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>35717</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99453</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>773905</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>113459</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="フローチャート : 手操作入力 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="250030" y="2456891"/>
-          <a:ext cx="1381125" cy="347381"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>HOME</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>の選択</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>11903</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>48324</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="フローチャート : 手操作入力 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="250031" y="3036091"/>
-          <a:ext cx="1393032" cy="369796"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>AWAY</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>の選択</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>71435</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="フローチャート : 手操作入力 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="261938" y="3631405"/>
-          <a:ext cx="1381125" cy="464343"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>HIOME</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>の勝敗選択</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>83345</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>89298</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>56871</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="30" idx="2"/>
-          <a:endCxn id="31" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="940595" y="1654968"/>
-          <a:ext cx="5953" cy="259278"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>46227</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>83345</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>134191</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="2"/>
-          <a:endCxn id="32" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="940593" y="2236977"/>
-          <a:ext cx="2" cy="254652"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>113459</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>89297</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>48883</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="2"/>
-          <a:endCxn id="33" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="940593" y="2804272"/>
-          <a:ext cx="5954" cy="268799"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>89297</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>48324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>153589</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="2"/>
-          <a:endCxn id="34" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="946547" y="3405887"/>
-          <a:ext cx="5954" cy="271952"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>59532</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>113458</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>149879</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="フローチャート : 手操作入力 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="273845" y="4304458"/>
-          <a:ext cx="1369218" cy="369796"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>天気の選択</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>71435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>101204</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>150438</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="34" idx="2"/>
-          <a:endCxn id="41" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="952501" y="4095748"/>
-          <a:ext cx="5953" cy="245690"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>59532</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>155481</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>16509</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:colOff>778509</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6301,8 +5383,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="273845" y="5846669"/>
-          <a:ext cx="1385727" cy="435067"/>
+          <a:off x="250032" y="4660806"/>
+          <a:ext cx="1366677" cy="449355"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -6362,15 +5444,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:colOff>97631</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>111919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>750094</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>99453</xdr:rowOff>
+      <xdr:colOff>740569</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4203</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6379,8 +5461,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="321469" y="4893469"/>
-          <a:ext cx="1285875" cy="730484"/>
+          <a:off x="307181" y="2188369"/>
+          <a:ext cx="1271588" cy="749534"/>
           <a:chOff x="310860" y="3796904"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -6476,7 +5558,7 @@
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>入力の正誤処理</a:t>
+              <a:t>選択漏れがない</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -6488,14 +5570,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>101204</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>149879</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>92729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>107157</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>111919</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6507,8 +5589,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="958454" y="4674254"/>
-          <a:ext cx="5953" cy="219215"/>
+          <a:off x="939404" y="1826279"/>
+          <a:ext cx="3571" cy="362090"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6537,28 +5619,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>107157</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>99453</xdr:rowOff>
+      <xdr:colOff>104696</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>109459</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>155481</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88806</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="120" name="カギ線コネクタ 220"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="115" idx="2"/>
-          <a:endCxn id="45" idx="0"/>
+          <a:endCxn id="51" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="964407" y="5623953"/>
-          <a:ext cx="2302" cy="222716"/>
+        <a:xfrm flipH="1">
+          <a:off x="942896" y="2937903"/>
+          <a:ext cx="79" cy="598953"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6587,15 +5669,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>154780</xdr:rowOff>
+      <xdr:colOff>135731</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>707071</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>89785</xdr:rowOff>
+      <xdr:colOff>735646</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6604,8 +5686,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1750219" y="5845968"/>
-          <a:ext cx="1385727" cy="435067"/>
+          <a:off x="1754981" y="2907505"/>
+          <a:ext cx="1380965" cy="449355"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -6648,7 +5730,27 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>誤った項目を指定</a:t>
+            <a:t>誤った項目に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>エラー表示</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -6665,15 +5767,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>750094</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>67586</xdr:rowOff>
+      <xdr:colOff>740569</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>14208</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>154780</xdr:rowOff>
+      <xdr:colOff>45164</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145255</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6685,8 +5787,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1607344" y="5258711"/>
-          <a:ext cx="835739" cy="587257"/>
+          <a:off x="1578769" y="2563136"/>
+          <a:ext cx="866695" cy="344369"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6715,11 +5817,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>78581</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="325730" cy="275717"/>
+    <xdr:ext cx="387094" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="130" name="テキスト ボックス 129"/>
@@ -6727,8 +5829,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1012031" y="5548312"/>
-          <a:ext cx="325730" cy="275717"/>
+          <a:off x="916781" y="2890837"/>
+          <a:ext cx="387094" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6756,9 +5858,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>正</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YES</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6766,12 +5869,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>40481</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="325730" cy="275717"/>
+    <xdr:ext cx="369140" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="131" name="テキスト ボックス 130"/>
@@ -6779,8 +5882,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2452687" y="5536406"/>
-          <a:ext cx="325730" cy="275717"/>
+          <a:off x="1538287" y="2288381"/>
+          <a:ext cx="369140" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6808,9 +5911,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>誤</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NO</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6818,26 +5922,224 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95171</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>105756</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104696</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12606</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="2"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="933371" y="3986211"/>
+          <a:ext cx="9525" cy="674595"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50007</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6984</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvPr id="51" name="フローチャート : 定義済み処理 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2214563" y="1273969"/>
-          <a:ext cx="762000" cy="355787"/>
+          <a:off x="259557" y="3536856"/>
+          <a:ext cx="1366677" cy="449355"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データベースに</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>書き込む</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6984</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142034</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="3"/>
+          <a:endCxn id="65" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1626234" y="3757612"/>
+          <a:ext cx="450216" cy="3922"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="3552824"/>
+          <a:ext cx="800100" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -6880,687 +6182,11 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>年度</a:t>
+            <a:t>戦績</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>34318</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2214563" y="1869281"/>
-          <a:ext cx="762000" cy="355787"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>節</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>83342</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>105754</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2214563" y="2440780"/>
-          <a:ext cx="762000" cy="355787"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>HOME</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>547689</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>46224</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2214564" y="3048000"/>
-          <a:ext cx="762000" cy="355787"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>AWAY</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>583407</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>559595</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>10505</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2226470" y="3679031"/>
-          <a:ext cx="762000" cy="355787"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>勝敗結果</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>583407</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>130970</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>559595</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>153382</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2226470" y="4321970"/>
-          <a:ext cx="762000" cy="355787"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>天気</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>89296</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>94550</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="139" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="30" idx="3"/>
-          <a:endCxn id="132" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1643063" y="1446609"/>
-          <a:ext cx="571500" cy="5254"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>773907</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>23112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33619</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="143" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="3"/>
-          <a:endCxn id="133" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1631157" y="2047175"/>
-          <a:ext cx="583406" cy="10507"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>773905</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>94549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>106457</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="147" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="3"/>
-          <a:endCxn id="134" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1631155" y="2618674"/>
-          <a:ext cx="583408" cy="11908"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>30114</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>35019</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="151" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="3"/>
-          <a:endCxn id="135" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1643063" y="3220989"/>
-          <a:ext cx="571501" cy="4905"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165987</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>583407</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>5952</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="155" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="34" idx="3"/>
-          <a:endCxn id="136" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1643063" y="3856925"/>
-          <a:ext cx="583407" cy="6652"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>131668</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>583407</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142176</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="159" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="41" idx="3"/>
-          <a:endCxn id="137" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1643063" y="4489356"/>
-          <a:ext cx="583407" cy="10508"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7642,6 +6268,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7677,6 +6320,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8611,8 +7271,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:K7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8660,7 +7320,7 @@
       </c>
       <c r="P1" s="19">
         <f ca="1">TODAY()</f>
-        <v>42545</v>
+        <v>42547</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9388,8 +8048,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10163,8 +8823,8 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10354,14 +9014,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="87" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="89"/>
       <c r="G9" s="26" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9" s="55">
         <v>1</v>
@@ -10383,14 +9043,14 @@
         <v>2</v>
       </c>
       <c r="E10" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="89"/>
+      <c r="G10" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="55" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>46</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="87"/>
@@ -10410,14 +9070,14 @@
         <v>3</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" s="89"/>
       <c r="G11" s="55" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="87"/>
@@ -10437,14 +9097,14 @@
         <v>4</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F12" s="89"/>
       <c r="G12" s="55" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="87"/>
@@ -10464,14 +9124,14 @@
         <v>5</v>
       </c>
       <c r="E13" s="87" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F13" s="89"/>
       <c r="G13" s="55" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="87"/>
@@ -10491,14 +9151,14 @@
         <v>6</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F14" s="89"/>
       <c r="G14" s="55" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="87"/>
@@ -10517,10 +9177,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="87"/>
+      <c r="E15" s="87" t="s">
+        <v>49</v>
+      </c>
       <c r="F15" s="89"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>44</v>
+      </c>
       <c r="I15" s="26"/>
       <c r="J15" s="87"/>
       <c r="K15" s="88"/>
@@ -10538,10 +9204,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="87"/>
+      <c r="E16" s="87" t="s">
+        <v>52</v>
+      </c>
       <c r="F16" s="89"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="G16" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>44</v>
+      </c>
       <c r="I16" s="26"/>
       <c r="J16" s="87"/>
       <c r="K16" s="88"/>
@@ -10559,10 +9231,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="87"/>
+      <c r="E17" s="87" t="s">
+        <v>53</v>
+      </c>
       <c r="F17" s="89"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="G17" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>44</v>
+      </c>
       <c r="I17" s="26"/>
       <c r="J17" s="87"/>
       <c r="K17" s="88"/>

--- a/C班内部設計書.xlsx
+++ b/C班内部設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ishok\Documents\GitHub\-A-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\iwase\Documents\GitHub\-A-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="10410" tabRatio="732" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'処理 (2)'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_内部!$A$1:$Q$36</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -410,14 +410,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11.14.15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理者データ記入</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -432,27 +424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.3.4.5.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者用のデータ記入</t>
-    <rPh sb="0" eb="4">
-      <t>カンリシャヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザの選択</t>
-    <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NOT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -461,6 +432,38 @@
     <rPh sb="0" eb="4">
       <t>カンリシャヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザの選択操作</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者のログイン</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームID　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -492,24 +495,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チーム名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チームID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戦績ID</t>
-    <rPh sb="0" eb="2">
-      <t>センセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>対戦表ID</t>
     <rPh sb="0" eb="2">
       <t>タイセン</t>
@@ -524,22 +509,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
+    <t>戦績ID</t>
+    <rPh sb="0" eb="2">
+      <t>センセキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
+    <t>9.12.13</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
+    <t>5.9</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,7 +594,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,12 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,7 +969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1165,8 +1147,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1237,7 +1222,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1268,6 +1253,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1458,8 +1449,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9597840" y="4029636"/>
-          <a:ext cx="750794" cy="447115"/>
+          <a:off x="9648266" y="3955677"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -1686,15 +1677,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>69985</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>64689</xdr:rowOff>
+      <xdr:colOff>81190</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>17317</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>154336</xdr:rowOff>
+      <xdr:colOff>28522</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>131922</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1703,8 +1694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="277803" y="1285621"/>
-          <a:ext cx="1350105" cy="436010"/>
+          <a:off x="294102" y="2417922"/>
+          <a:ext cx="1370479" cy="425824"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -1757,15 +1748,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>119495</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28270</xdr:rowOff>
+      <xdr:colOff>127338</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>86541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>124296</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>35417</xdr:rowOff>
+      <xdr:colOff>132138</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>125063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1777,8 +1768,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="957695" y="2447620"/>
-          <a:ext cx="4801" cy="178597"/>
+          <a:off x="978985" y="3470717"/>
+          <a:ext cx="4800" cy="206611"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1807,15 +1798,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>124528</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>131506</xdr:rowOff>
+      <xdr:colOff>130639</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>126027</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>162387</xdr:rowOff>
+      <xdr:colOff>132138</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83944</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1827,8 +1818,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="955801" y="3084256"/>
-          <a:ext cx="1499" cy="204063"/>
+          <a:off x="982286" y="4109594"/>
+          <a:ext cx="1499" cy="198968"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1857,13 +1848,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>155319</xdr:colOff>
+      <xdr:colOff>166525</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>85647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>725901</xdr:colOff>
+      <xdr:colOff>737107</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>7204</xdr:rowOff>
     </xdr:to>
@@ -1874,7 +1865,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6497848" y="1284676"/>
+          <a:off x="6509054" y="1284676"/>
           <a:ext cx="1354994" cy="425822"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
@@ -1928,15 +1919,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165987</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>69337</xdr:rowOff>
+      <xdr:colOff>177193</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>735686</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>136573</xdr:rowOff>
+      <xdr:colOff>746892</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80543</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1945,7 +1936,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6508516" y="2276896"/>
+          <a:off x="6519722" y="2725130"/>
           <a:ext cx="1354111" cy="571501"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -1997,8 +1988,8 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>321629</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>68637</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35019</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1051698" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -2008,7 +1999,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6664158" y="2444284"/>
+          <a:off x="6664158" y="2914931"/>
           <a:ext cx="1051698" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2147,15 +2138,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>735686</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>17230</xdr:rowOff>
+      <xdr:colOff>746892</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>18689</xdr:colOff>
+      <xdr:colOff>26533</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>42300</xdr:rowOff>
+      <xdr:rowOff>61350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2167,8 +2158,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7822286" y="2608030"/>
-          <a:ext cx="845103" cy="1053770"/>
+          <a:off x="7873833" y="3010881"/>
+          <a:ext cx="848465" cy="602734"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2197,28 +2188,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>48404</xdr:colOff>
+      <xdr:colOff>59610</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>7204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>58631</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>69337</xdr:rowOff>
+      <xdr:colOff>65335</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="77" name="カギ線コネクタ 76"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="72" idx="2"/>
-          <a:endCxn id="73" idx="0"/>
+          <a:endCxn id="168" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7175345" y="1710498"/>
-          <a:ext cx="10227" cy="566398"/>
+          <a:off x="7186551" y="1710498"/>
+          <a:ext cx="5725" cy="340179"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2247,9 +2238,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>58631</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>136573</xdr:rowOff>
+      <xdr:colOff>69837</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -2267,8 +2258,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7185572" y="2848397"/>
-          <a:ext cx="14408" cy="745889"/>
+          <a:off x="7196778" y="3296631"/>
+          <a:ext cx="3202" cy="297655"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2297,15 +2288,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>108556</xdr:colOff>
+      <xdr:colOff>118081</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>42300</xdr:rowOff>
+      <xdr:rowOff>61350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>709871</xdr:colOff>
+      <xdr:colOff>719396</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>141191</xdr:rowOff>
+      <xdr:rowOff>160241</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2314,8 +2305,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7976206" y="3661800"/>
-          <a:ext cx="1382365" cy="441791"/>
+          <a:off x="8029434" y="3613615"/>
+          <a:ext cx="1385727" cy="435067"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2376,8 +2367,8 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>102835</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161505</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83065</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="300082" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -2387,7 +2378,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7229776" y="3041417"/>
+          <a:off x="7229776" y="3299153"/>
           <a:ext cx="300082" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2428,9 +2419,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>33919</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>146518</xdr:rowOff>
+      <xdr:colOff>56331</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56872</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="300082" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -2440,7 +2431,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8729684" y="3026430"/>
+          <a:off x="8752096" y="3272960"/>
           <a:ext cx="300082" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2481,15 +2472,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>78873</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>35417</xdr:rowOff>
+      <xdr:colOff>90077</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>125063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>131506</xdr:rowOff>
+      <xdr:colOff>28522</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53065</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2498,8 +2489,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="286691" y="2641803"/>
-          <a:ext cx="1341218" cy="442453"/>
+          <a:off x="302989" y="3677328"/>
+          <a:ext cx="1361592" cy="432266"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2562,15 +2553,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>69272</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>97134</xdr:rowOff>
+      <xdr:colOff>80476</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28270</xdr:rowOff>
+      <xdr:colOff>28522</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>86541</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2579,8 +2570,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="278822" y="2002134"/>
-          <a:ext cx="1357746" cy="445486"/>
+          <a:off x="293388" y="3031954"/>
+          <a:ext cx="1371193" cy="438763"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2643,15 +2634,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>67216</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>162387</xdr:rowOff>
+      <xdr:colOff>78420</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>25976</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>112569</xdr:rowOff>
+      <xdr:colOff>37180</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>34127</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2660,8 +2651,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="275034" y="3288319"/>
-          <a:ext cx="1361533" cy="469727"/>
+          <a:off x="291332" y="4308562"/>
+          <a:ext cx="1381907" cy="454447"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2731,15 +2722,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476252</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>108238</xdr:rowOff>
+      <xdr:colOff>296956</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>346364</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>6061</xdr:rowOff>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2748,8 +2739,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095502" y="2013238"/>
-          <a:ext cx="651162" cy="412173"/>
+          <a:off x="1933015" y="3007759"/>
+          <a:ext cx="868454" cy="499681"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -2792,7 +2783,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>勝敗結果</a:t>
+            <a:t>結果</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2802,15 +2793,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>60613</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>17317</xdr:rowOff>
+      <xdr:colOff>71817</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>34844</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>140680</xdr:rowOff>
+      <xdr:colOff>46048</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6209</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2819,8 +2810,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="268431" y="4009158"/>
-          <a:ext cx="1377004" cy="469727"/>
+          <a:off x="284729" y="4947904"/>
+          <a:ext cx="1397378" cy="459540"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2912,158 +2903,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>43296</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>355021</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>112569</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2095500" y="2649682"/>
-          <a:ext cx="649430" cy="415637"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>勝敗結果</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>484910</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>17317</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>355022</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2095501" y="3316431"/>
-          <a:ext cx="649430" cy="415637"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>天気</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>119495</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>154336</xdr:rowOff>
+      <xdr:colOff>127338</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>131922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>119851</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>97134</xdr:rowOff>
+      <xdr:colOff>127695</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152042</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3075,8 +2924,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="957695" y="1716436"/>
-          <a:ext cx="356" cy="285698"/>
+          <a:off x="978985" y="2843746"/>
+          <a:ext cx="357" cy="188208"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3105,15 +2954,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>124528</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>112569</xdr:rowOff>
+      <xdr:colOff>130639</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>34127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>125660</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>17317</xdr:rowOff>
+      <xdr:colOff>131771</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50933</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3125,8 +2974,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="955801" y="3758046"/>
-          <a:ext cx="1132" cy="251112"/>
+          <a:off x="982286" y="4763009"/>
+          <a:ext cx="1132" cy="184895"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3155,28 +3004,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>12594</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>14669</xdr:rowOff>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>17319</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>31341</xdr:rowOff>
+      <xdr:colOff>22117</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143398</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="204" name="カギ線コネクタ 137"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="207" idx="2"/>
-          <a:endCxn id="206" idx="0"/>
+          <a:endCxn id="291" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3974994" y="2434019"/>
-          <a:ext cx="4725" cy="188122"/>
+        <a:xfrm>
+          <a:off x="4006611" y="3489052"/>
+          <a:ext cx="4800" cy="206611"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3205,28 +3054,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>11961</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127430</xdr:rowOff>
+      <xdr:colOff>20618</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>13460</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>158311</xdr:rowOff>
+      <xdr:colOff>22117</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68663</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="205" name="カギ線コネクタ 137"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="206" idx="2"/>
+          <a:stCxn id="291" idx="2"/>
           <a:endCxn id="208" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3960506" y="3080180"/>
-          <a:ext cx="1499" cy="204063"/>
+          <a:off x="4009912" y="4127929"/>
+          <a:ext cx="1499" cy="165352"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3255,96 +3104,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>122169</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>31341</xdr:rowOff>
+      <xdr:colOff>123772</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>684069</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127430</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="206" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3291396" y="2637727"/>
-          <a:ext cx="1341218" cy="442453"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アウェイでの勝率</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122093</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>83533</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>693594</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>14669</xdr:rowOff>
+      <xdr:colOff>695273</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3353,8 +3121,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3303443" y="1988533"/>
-          <a:ext cx="1352551" cy="445486"/>
+          <a:off x="3328654" y="3050289"/>
+          <a:ext cx="1355913" cy="438763"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3417,15 +3185,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>110512</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>158311</xdr:rowOff>
+      <xdr:colOff>121716</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>108493</xdr:rowOff>
+      <xdr:colOff>703931</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18846</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3434,8 +3202,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3279739" y="3284243"/>
-          <a:ext cx="1361533" cy="469727"/>
+          <a:off x="3326598" y="4293281"/>
+          <a:ext cx="1366627" cy="454447"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3504,87 +3272,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>364550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>105894</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>234662</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>3717</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="209" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5108000" y="2010894"/>
-          <a:ext cx="651162" cy="412173"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>勝敗結果</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>13241</xdr:rowOff>
+      <xdr:colOff>115113</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>46857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>701595</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>136604</xdr:rowOff>
+      <xdr:colOff>712799</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2133</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3593,8 +3290,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3273136" y="4005082"/>
-          <a:ext cx="1377004" cy="469727"/>
+          <a:off x="3319995" y="4943828"/>
+          <a:ext cx="1382098" cy="459540"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3686,26 +3383,803 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>363681</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>39220</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20618</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>233793</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>108493</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>21750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>46857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="215" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="208" idx="2"/>
+          <a:endCxn id="210" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4009912" y="4747728"/>
+          <a:ext cx="1132" cy="196100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28522</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>35248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>296956</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41512</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="217" name="カギ線コネクタ 216"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="3"/>
+          <a:endCxn id="64" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1664581" y="3251336"/>
+          <a:ext cx="268434" cy="6264"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28522</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>313762</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>5020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="221" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+          <a:endCxn id="87" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1664581" y="3891751"/>
+          <a:ext cx="285240" cy="1710"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>37180</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>143080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324968</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>148988</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="224" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="3"/>
+          <a:endCxn id="90" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1673239" y="4535786"/>
+          <a:ext cx="287788" cy="5908"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>80477</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>617339</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>75384</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="212" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvPr id="234" name="ひし形 233"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5091545" y="2645606"/>
-          <a:ext cx="649430" cy="415637"/>
+          <a:off x="506301" y="5566776"/>
+          <a:ext cx="962685" cy="582196"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17316</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160447</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="646331" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="テキスト ボックス 234"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="656051" y="5729771"/>
+          <a:ext cx="646331" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>勝敗予想</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>131771</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>135997</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165541</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="236" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="2"/>
+          <a:endCxn id="234" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="983418" y="5407444"/>
+          <a:ext cx="4226" cy="159332"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>58068</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>32599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>655563</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>150869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="240" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1694127" y="5938099"/>
+          <a:ext cx="1381907" cy="454446"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>予想結果の表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>135996</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>75384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>58067</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>91734</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="241" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="234" idx="2"/>
+          <a:endCxn id="240" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1332710" y="5803905"/>
+          <a:ext cx="16350" cy="706483"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>617339</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>21750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>120462</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="278" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="210" idx="2"/>
+          <a:endCxn id="234" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2512762" y="4359592"/>
+          <a:ext cx="454506" cy="2542058"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>703931</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>126576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127799</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="290" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="208" idx="3"/>
+          <a:endCxn id="149" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4693225" y="4519282"/>
+          <a:ext cx="461480" cy="1223"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133373</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695273</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="291" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3338255" y="3695663"/>
+          <a:ext cx="1346312" cy="432266"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>B:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アウェイでの勝率</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695273</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>369792</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25722</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="294" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="291" idx="3"/>
+          <a:endCxn id="148" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4684567" y="3911796"/>
+          <a:ext cx="458931" cy="2367"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695273</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>48135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>369793</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53583</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="295" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="207" idx="3"/>
+          <a:endCxn id="147" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4684567" y="3264223"/>
+          <a:ext cx="458932" cy="5448"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>313762</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>89645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>397804</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1949821" y="3641910"/>
+          <a:ext cx="868454" cy="499681"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3748,7 +4222,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>勝敗結果</a:t>
+            <a:t>結果</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3757,26 +4231,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>372342</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>13241</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324968</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>242454</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>82515</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409010</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>62652</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="213" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvPr id="90" name="フローチャート : 磁気ディスク 54"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5100206" y="3312355"/>
-          <a:ext cx="649430" cy="415637"/>
+          <a:off x="1961027" y="4291853"/>
+          <a:ext cx="868454" cy="499681"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3829,77 +4303,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>155202</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114860</xdr:rowOff>
+      <xdr:colOff>127695</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>111194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15638</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>83533</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>84857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="214" name="カギ線コネクタ 137"/>
+        <xdr:cNvPr id="113" name="カギ線コネクタ 137"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="207" idx="0"/>
+          <a:stCxn id="143" idx="2"/>
+          <a:endCxn id="146" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="993402" y="1848410"/>
-          <a:ext cx="2984636" cy="140123"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>11961</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>108493</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>13093</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>13241</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="215" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="208" idx="2"/>
-          <a:endCxn id="210" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3960506" y="3753970"/>
-          <a:ext cx="1132" cy="251112"/>
+        <a:xfrm flipH="1">
+          <a:off x="979342" y="2318753"/>
+          <a:ext cx="1885" cy="141751"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3927,178 +4352,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>369793</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476252</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>148427</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="217" name="カギ線コネクタ 216"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="3"/>
-          <a:endCxn id="64" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1636568" y="2219325"/>
-          <a:ext cx="458934" cy="5552"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>77933</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>83462</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="221" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="3"/>
-          <a:endCxn id="164" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1627909" y="2857501"/>
-          <a:ext cx="467591" cy="5529"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25976</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>453835</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>50888</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>484910</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="224" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="57" idx="3"/>
-          <a:endCxn id="165" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1636567" y="3523183"/>
-          <a:ext cx="458934" cy="1067"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>69273</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142009</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>606135</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>48490</xdr:rowOff>
+      <xdr:rowOff>129887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="234" name="ひし形 233"/>
+        <xdr:cNvPr id="147" name="フローチャート : 磁気ディスク 54"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="488373" y="4618759"/>
-          <a:ext cx="955962" cy="592281"/>
+          <a:off x="5143499" y="3014382"/>
+          <a:ext cx="868454" cy="499681"/>
         </a:xfrm>
-        <a:prstGeom prst="diamond">
+        <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -4130,96 +4405,191 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>結果</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>36367</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>25977</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>369792</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112057</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="646331" cy="242374"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>453834</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107474</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="235" name="テキスト ボックス 234"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="148" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="665017" y="4845627"/>
-          <a:ext cx="646331" cy="242374"/>
+          <a:off x="5143498" y="3664322"/>
+          <a:ext cx="868454" cy="499681"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>勝敗予想</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>結果</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123929</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>140680</xdr:rowOff>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>128154</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142009</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>465041</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5154705" y="4269441"/>
+          <a:ext cx="868454" cy="499681"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>天気</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28522</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2289</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="236" name="カギ線コネクタ 137"/>
+        <xdr:cNvPr id="158" name="カギ線コネクタ 220"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="81" idx="2"/>
-          <a:endCxn id="234" idx="0"/>
+          <a:stCxn id="146" idx="3"/>
+          <a:endCxn id="207" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962129" y="4445980"/>
-          <a:ext cx="4225" cy="172779"/>
+          <a:off x="1664581" y="2630834"/>
+          <a:ext cx="2342030" cy="419455"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -4245,26 +4615,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>69274</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12989</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28034</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>758198</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>110097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="240" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvPr id="168" name="フローチャート : 定義済み処理 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="278824" y="5346989"/>
-          <a:ext cx="1368460" cy="464531"/>
+          <a:off x="6499412" y="2050677"/>
+          <a:ext cx="1385727" cy="435067"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -4307,7 +4677,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>勝利・敗北の表示</a:t>
+            <a:t>パスワードを正誤判定に引き渡す</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -4323,29 +4693,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>124854</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>48490</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65335</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>110097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>128154</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12989</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69837</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13306</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="241" name="カギ線コネクタ 137"/>
+        <xdr:cNvPr id="171" name="カギ線コネクタ 76"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="234" idx="2"/>
-          <a:endCxn id="240" idx="0"/>
+          <a:stCxn id="168" idx="2"/>
+          <a:endCxn id="73" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="963054" y="5211040"/>
-          <a:ext cx="3300" cy="135949"/>
+        <a:xfrm>
+          <a:off x="7192276" y="2485744"/>
+          <a:ext cx="4502" cy="239386"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4371,309 +4741,132 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>606135</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>136604</xdr:rowOff>
+      <xdr:colOff>100851</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>12227</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="278" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="210" idx="2"/>
-          <a:endCxn id="234" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+    <xdr:ext cx="679610" cy="259045"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2472983" y="3413256"/>
-          <a:ext cx="472996" cy="2530292"/>
+        <a:xfrm>
+          <a:off x="952498" y="2812676"/>
+          <a:ext cx="679610" cy="259045"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>ホーム側</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>46812</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>784409</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>372342</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47879</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="290" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="208" idx="3"/>
-          <a:endCxn id="213" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+    <xdr:ext cx="749692" cy="259045"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4641272" y="3519107"/>
-          <a:ext cx="458934" cy="1067"/>
+          <a:off x="3989291" y="2801471"/>
+          <a:ext cx="749692" cy="259045"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122169</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>31341</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>684069</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127430</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="291" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3291396" y="2637727"/>
-          <a:ext cx="1341218" cy="442453"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アウェイでの勝率</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>アウェイ側</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>684069</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>73857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>363681</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>79386</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="294" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="291" idx="3"/>
-          <a:endCxn id="212" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4632614" y="2853425"/>
-          <a:ext cx="458931" cy="5529"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>693594</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>134826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>364550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>140531</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="295" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="207" idx="3"/>
-          <a:endCxn id="209" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4655994" y="2211276"/>
-          <a:ext cx="452006" cy="5705"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>58017</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>170584</xdr:rowOff>
+      <xdr:colOff>75995</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>16777</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>120765</xdr:rowOff>
+      <xdr:colOff>24041</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvPr id="80" name="フローチャート : 定義済み処理 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="267567" y="6018934"/>
-          <a:ext cx="1368460" cy="464531"/>
+          <a:off x="288907" y="1290560"/>
+          <a:ext cx="1371193" cy="438763"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -4716,15 +4909,79 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>送信成功画面の表示</a:t>
+            <a:t>節を選択</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82718</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30764</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>111194</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295630" y="1879990"/>
+          <a:ext cx="1371193" cy="438763"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>対戦表の表示</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4733,28 +4990,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>113597</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:colOff>122857</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>124854</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>170584</xdr:rowOff>
+      <xdr:colOff>129580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8608</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="カギ線コネクタ 137"/>
+        <xdr:cNvPr id="144" name="カギ線コネクタ 137"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="240" idx="2"/>
-          <a:endCxn id="58" idx="0"/>
+          <a:stCxn id="80" idx="2"/>
+          <a:endCxn id="143" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="951797" y="5811520"/>
-          <a:ext cx="11257" cy="207414"/>
+        <a:xfrm>
+          <a:off x="974504" y="1729323"/>
+          <a:ext cx="6723" cy="150667"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4780,112 +5037,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>752776</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>69617</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="693267" cy="242374"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="テキスト ボックス 64"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3153076" y="1631717"/>
-          <a:ext cx="693267" cy="242374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>アウェイ側</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95551</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>60092</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="630109" cy="242374"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="テキスト ボックス 65"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="305101" y="1793642"/>
-          <a:ext cx="630109" cy="242374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>ホーム側</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5060,8 +5211,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9597840" y="4029636"/>
-          <a:ext cx="750794" cy="447115"/>
+          <a:off x="9669278" y="3924861"/>
+          <a:ext cx="750794" cy="432828"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -5288,25 +5439,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>183357</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>56308</xdr:rowOff>
+      <xdr:colOff>59532</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>92729</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="フローチャート : 手操作入力 26"/>
+        <xdr:cNvPr id="30" name="フローチャート : 手操作入力 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392907" y="1446958"/>
-          <a:ext cx="1092993" cy="379321"/>
+          <a:off x="273845" y="1559717"/>
+          <a:ext cx="1393031" cy="523877"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -5349,7 +5500,155 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>送信ボタン押下</a:t>
+            <a:t>送信ボタンの押下</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>113109</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>113111</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="2"/>
+          <a:endCxn id="115" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="970359" y="2083594"/>
+          <a:ext cx="2" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>59532</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16509</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>102392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="273845" y="4525075"/>
+          <a:ext cx="1385727" cy="435067"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データべーズに</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>書き込む</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -5366,25 +5665,605 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>40482</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>12606</xdr:rowOff>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="114" name="グループ化 113"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="226219" y="2512219"/>
+          <a:ext cx="1488280" cy="845344"/>
+          <a:chOff x="337151" y="3825312"/>
+          <a:chExt cx="1367117" cy="571501"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="ひし形 114"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="337151" y="3825312"/>
+            <a:ext cx="1367117" cy="571501"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="テキスト ボックス 115"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="442271" y="3920639"/>
+            <a:ext cx="1178186" cy="392415"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>選択漏れがない</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>109459</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>778509</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:colOff>113109</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="2"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="966709" y="3357563"/>
+          <a:ext cx="3650" cy="1167512"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>718977</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvPr id="126" name="フローチャート : 定義済み処理 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="250032" y="4660806"/>
-          <a:ext cx="1366677" cy="449355"/>
+          <a:off x="1762125" y="3798093"/>
+          <a:ext cx="1385727" cy="435067"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>誤った項目にエラー表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>77391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26114</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="3"/>
+          <a:endCxn id="126" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714499" y="2934891"/>
+          <a:ext cx="740490" cy="863202"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="378758" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="テキスト ボックス 129"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="988218" y="3393280"/>
+          <a:ext cx="378758" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Yes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="350096" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="テキスト ボックス 130"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1678781" y="2690812"/>
+          <a:ext cx="350096" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>392907</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="フローチャート : 磁気ディスク 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2059782" y="4476750"/>
+          <a:ext cx="762000" cy="523874"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戦績</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16509</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>51546</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="カギ線コネクタ 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="3"/>
+          <a:endCxn id="50" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1659572" y="4738687"/>
+          <a:ext cx="400210" cy="3922"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>109459</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>102392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>118983</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="カギ線コネクタ 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="62" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="966709" y="4960142"/>
+          <a:ext cx="9524" cy="622208"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69056</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26033</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>159542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="283369" y="5582350"/>
+          <a:ext cx="1385727" cy="435067"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -5436,754 +6315,6 @@
             <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>97631</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>111919</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>740569</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4203</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="114" name="グループ化 113"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="307181" y="2188369"/>
-          <a:ext cx="1271588" cy="749534"/>
-          <a:chOff x="310860" y="3796904"/>
-          <a:chExt cx="1367117" cy="571501"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="115" name="ひし形 114"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="310860" y="3796904"/>
-            <a:ext cx="1367117" cy="571501"/>
-          </a:xfrm>
-          <a:prstGeom prst="diamond">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="116" name="テキスト ボックス 115"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="398523" y="3888442"/>
-            <a:ext cx="1229363" cy="392415"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>選択漏れがない</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>101204</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>92729</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>111919</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="41" idx="2"/>
-          <a:endCxn id="115" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="939404" y="1826279"/>
-          <a:ext cx="3571" cy="362090"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104696</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4203</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>88806</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="115" idx="2"/>
-          <a:endCxn id="51" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="942896" y="2937903"/>
-          <a:ext cx="79" cy="598953"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>135731</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>145255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>735646</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1754981" y="2907505"/>
-          <a:ext cx="1380965" cy="449355"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>誤った項目に</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>エラー表示</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>740569</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>143786</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>45164</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>145255</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="115" idx="3"/>
-          <a:endCxn id="126" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1578769" y="2563136"/>
-          <a:ext cx="866695" cy="344369"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>78581</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="387094" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="テキスト ボックス 129"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="916781" y="2890837"/>
-          <a:ext cx="387094" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>YES</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>40481</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="369140" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="テキスト ボックス 130"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1538287" y="2288381"/>
-          <a:ext cx="369140" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>NO</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95171</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104696</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>12606</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="51" idx="2"/>
-          <a:endCxn id="45" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="933371" y="3986211"/>
-          <a:ext cx="9525" cy="674595"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50007</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>88806</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6984</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="259557" y="3536856"/>
-          <a:ext cx="1366677" cy="449355"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>データベースに</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>書き込む</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6984</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142034</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="51" idx="3"/>
-          <a:endCxn id="65" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1626234" y="3757612"/>
-          <a:ext cx="450216" cy="3922"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2076450" y="3552824"/>
-          <a:ext cx="800100" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>戦績</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6268,23 +6399,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6320,23 +6434,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6519,7 +6616,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q2"/>
+      <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6551,10 +6648,10 @@
       <c r="O1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="64">
-        <v>42538</v>
-      </c>
-      <c r="Q1" s="65"/>
+      <c r="P1" s="65">
+        <v>42549</v>
+      </c>
+      <c r="Q1" s="66"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
@@ -6571,11 +6668,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
@@ -6620,17 +6717,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -6641,15 +6738,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -6660,15 +6757,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -6716,19 +6813,19 @@
       <c r="A10" s="40"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="41"/>
@@ -6737,17 +6834,17 @@
       <c r="A11" s="40"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="41"/>
@@ -6756,17 +6853,17 @@
       <c r="A12" s="40"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="41"/>
@@ -6776,17 +6873,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -6797,15 +6894,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -6816,15 +6913,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -6835,15 +6932,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -6854,15 +6951,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -6893,15 +6990,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
       <c r="M19" s="37"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -6914,13 +7011,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
       <c r="M20" s="37"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -6933,13 +7030,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
       <c r="M21" s="37"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -6952,13 +7049,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
       <c r="M22" s="37"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -6971,13 +7068,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
       <c r="M23" s="37"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -6990,13 +7087,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
       <c r="M24" s="37"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -7009,13 +7106,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
       <c r="M25" s="37"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -7071,14 +7168,14 @@
       <c r="H28" s="2"/>
       <c r="I28" s="54"/>
       <c r="J28" s="53"/>
-      <c r="K28" s="61" t="s">
+      <c r="K28" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="64"/>
       <c r="Q28" s="41"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -7092,18 +7189,18 @@
       <c r="H29" s="2"/>
       <c r="I29" s="54"/>
       <c r="J29" s="53"/>
-      <c r="K29" s="76" t="s">
+      <c r="K29" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77" t="s">
+      <c r="L29" s="78"/>
+      <c r="M29" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77" t="s">
+      <c r="N29" s="78"/>
+      <c r="O29" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="80"/>
+      <c r="P29" s="81"/>
       <c r="Q29" s="41"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7117,12 +7214,12 @@
       <c r="H30" s="2"/>
       <c r="I30" s="54"/>
       <c r="J30" s="53"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="73"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="74"/>
       <c r="Q30" s="41"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7136,12 +7233,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="54"/>
       <c r="J31" s="53"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="73"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="74"/>
       <c r="Q31" s="41"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7155,12 +7252,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="54"/>
       <c r="J32" s="53"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="73"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="74"/>
       <c r="Q32" s="41"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7174,12 +7271,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="54"/>
       <c r="J33" s="53"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="73"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="74"/>
       <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7193,12 +7290,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="54"/>
       <c r="J34" s="53"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="73"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="74"/>
       <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -7212,12 +7309,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="54"/>
       <c r="J35" s="53"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="75"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="76"/>
       <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7257,7 +7354,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -7271,8 +7368,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7287,25 +7384,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -7320,7 +7417,7 @@
       </c>
       <c r="P1" s="19">
         <f ca="1">TODAY()</f>
-        <v>42547</v>
+        <v>42549</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7386,54 +7483,54 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84">
+        <v>4</v>
+      </c>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="96"/>
       <c r="L6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
+      <c r="M6" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
       <c r="L7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -7443,8 +7540,8 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="23"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
@@ -7461,8 +7558,8 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="24"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="9"/>
@@ -7479,8 +7576,8 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="9"/>
@@ -7497,8 +7594,8 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="24"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="9"/>
@@ -7515,8 +7612,8 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="24"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="9"/>
@@ -7533,8 +7630,8 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="9"/>
@@ -7551,11 +7648,11 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="24"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="24"/>
@@ -7571,8 +7668,8 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="24"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="9"/>
@@ -7589,8 +7686,8 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="24"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="9"/>
@@ -7607,8 +7704,8 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="24"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="9"/>
@@ -7625,8 +7722,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="24"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="9"/>
@@ -7645,8 +7742,8 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="24"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="9"/>
@@ -7663,8 +7760,8 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="24"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="9"/>
@@ -7681,8 +7778,8 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="24"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="9"/>
@@ -7699,8 +7796,8 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="24"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="9"/>
@@ -7717,8 +7814,8 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="24"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="9"/>
@@ -7735,8 +7832,8 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="9"/>
@@ -7753,8 +7850,8 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="24"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="9"/>
@@ -7771,8 +7868,8 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="24"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="9"/>
@@ -7789,8 +7886,8 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="24"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="9"/>
@@ -7807,8 +7904,8 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="24"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="9"/>
@@ -7825,8 +7922,8 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="24"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="9"/>
@@ -7843,8 +7940,8 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="24"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="9"/>
@@ -7861,8 +7958,8 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="24"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="9"/>
@@ -7881,8 +7978,8 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="24"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="9"/>
@@ -7899,8 +7996,8 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="24"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="9"/>
@@ -7917,8 +8014,8 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="24"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="9"/>
@@ -7935,8 +8032,8 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="24"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="9"/>
@@ -7953,8 +8050,8 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="24"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="9"/>
@@ -7971,8 +8068,8 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="24"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="9"/>
@@ -7989,8 +8086,8 @@
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="25"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="11"/>
@@ -8002,38 +8099,37 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
       <c r="O39" s="10"/>
       <c r="P39" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="E6:K6"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
     <mergeCell ref="M7:O7"/>
+    <mergeCell ref="E7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -8048,8 +8144,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8064,25 +8160,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="58" t="s">
         <v>2</v>
       </c>
@@ -8096,7 +8192,7 @@
         <v>32</v>
       </c>
       <c r="P1" s="19">
-        <v>42534</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8162,54 +8258,54 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
       <c r="L6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
       <c r="H7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -8823,15 +8919,17 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
     <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="15" width="10.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="2.25" style="1"/>
     <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
@@ -8839,25 +8937,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
@@ -8871,7 +8969,7 @@
         <v>32</v>
       </c>
       <c r="P1" s="19">
-        <v>42534</v>
+        <v>42549</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8982,10 +9080,10 @@
       <c r="D8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="93"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="30" t="s">
         <v>19</v>
       </c>
@@ -8995,11 +9093,11 @@
       <c r="I8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="93" t="s">
+      <c r="J8" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -9013,22 +9111,22 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="26" t="s">
-        <v>54</v>
+      <c r="E9" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="90"/>
+      <c r="G9" s="55" t="s">
+        <v>51</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I9" s="55">
         <v>1</v>
       </c>
-      <c r="J9" s="87"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -9042,20 +9140,20 @@
         <f t="shared" ref="D10:D25" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="26" t="s">
-        <v>54</v>
+      <c r="E10" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="90"/>
+      <c r="G10" s="55" t="s">
+        <v>51</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I10" s="26"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -9069,20 +9167,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="89"/>
+      <c r="E11" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="90"/>
       <c r="G11" s="55" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="90"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -9096,20 +9194,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="89"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="55" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -9123,20 +9221,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="89"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="55" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -9150,20 +9248,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="89"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I14" s="26"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -9177,20 +9275,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="89"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H15" s="55" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -9204,20 +9302,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="87" t="s">
+      <c r="E16" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="89"/>
+      <c r="F16" s="90"/>
       <c r="G16" s="55" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I16" s="26"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="89"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="2"/>
@@ -9231,20 +9329,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="89"/>
+      <c r="E17" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="90"/>
       <c r="G17" s="55" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="90"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -9258,14 +9356,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="89"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="89"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="90"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -9279,14 +9377,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="89"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="89"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="90"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -9300,14 +9398,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="89"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="89"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -9321,14 +9419,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="89"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="89"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="90"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -9342,14 +9440,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="89"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="89"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -9363,14 +9461,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="89"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="90"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="89"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="90"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -9384,14 +9482,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="87"/>
-      <c r="F24" s="89"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="89"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="90"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -9405,14 +9503,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="87"/>
-      <c r="F25" s="89"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="89"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="90"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>

--- a/C班内部設計書.xlsx
+++ b/C班内部設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="732" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'処理 (2)'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_内部!$A$1:$Q$36</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1225,6 +1226,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1253,12 +1260,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1987,9 +1988,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>321629</xdr:colOff>
+      <xdr:colOff>288011</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>35019</xdr:rowOff>
+      <xdr:rowOff>1402</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1051698" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -1999,7 +2000,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6664158" y="2914931"/>
+          <a:off x="6630540" y="2881314"/>
           <a:ext cx="1051698" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2101,7 +2102,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>データ記入画面</a:t>
+            <a:t>データ記入</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -2121,7 +2122,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>表示</a:t>
+            <a:t>画面表示</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -2349,7 +2350,27 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ログイン失敗画面表示</a:t>
+            <a:t>ログイン失敗</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面表示</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -2543,7 +2564,27 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ホームでの勝率</a:t>
+            <a:t>ホームでの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>勝率</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2624,7 +2665,27 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>同カードの勝率</a:t>
+            <a:t>同カードの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>勝率</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2705,7 +2766,27 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>天気での勝率</a:t>
+            <a:t>天気での</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>勝率</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -3175,7 +3256,27 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>同カードの勝率</a:t>
+            <a:t>同カードの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>勝率</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3256,7 +3357,27 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>天気での勝率</a:t>
+            <a:t>天気での</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>勝率</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -3813,7 +3934,27 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>予想結果の表示</a:t>
+            <a:t>予想結果の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>表示</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -4051,7 +4192,27 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>アウェイでの勝率</a:t>
+            <a:t>アウェイでの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>勝率</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5628,7 +5789,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>データべーズに</a:t>
+            <a:t>データベースに</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -5901,7 +6062,27 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>誤った項目にエラー表示</a:t>
+            <a:t>誤った項目に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>エラー表示</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -6616,7 +6797,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7354,7 +7535,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -7368,8 +7549,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7384,25 +7565,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="95"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -7491,12 +7672,12 @@
       <c r="E6" s="84">
         <v>4</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="31" t="s">
         <v>8</v>
       </c>
@@ -7517,12 +7698,12 @@
       <c r="E7" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="86"/>
       <c r="L7" s="31" t="s">
         <v>7</v>
       </c>
@@ -8117,19 +8298,19 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="E7:K7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="E7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -8144,8 +8325,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8160,25 +8341,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92"/>
       <c r="G1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="95"/>
       <c r="L1" s="58" t="s">
         <v>2</v>
       </c>
@@ -8192,7 +8373,8 @@
         <v>32</v>
       </c>
       <c r="P1" s="19">
-        <v>42545</v>
+        <f>表紙_内部!P1</f>
+        <v>42549</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8919,8 +9101,8 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8937,25 +9119,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92"/>
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="95"/>
       <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
@@ -8969,6 +9151,7 @@
         <v>32</v>
       </c>
       <c r="P1" s="19">
+        <f>表紙_内部!P1</f>
         <v>42549</v>
       </c>
     </row>
@@ -9080,10 +9263,10 @@
       <c r="D8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="94"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="30" t="s">
         <v>19</v>
       </c>
@@ -9093,11 +9276,11 @@
       <c r="I8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="94" t="s">
+      <c r="J8" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -9111,10 +9294,10 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="92"/>
       <c r="G9" s="55" t="s">
         <v>51</v>
       </c>
@@ -9124,9 +9307,9 @@
       <c r="I9" s="55">
         <v>1</v>
       </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="92"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -9140,10 +9323,10 @@
         <f t="shared" ref="D10:D25" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="90"/>
+      <c r="F10" s="92"/>
       <c r="G10" s="55" t="s">
         <v>51</v>
       </c>
@@ -9151,9 +9334,9 @@
         <v>39</v>
       </c>
       <c r="I10" s="26"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="92"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -9167,10 +9350,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="90"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="55" t="s">
         <v>45</v>
       </c>
@@ -9178,9 +9361,9 @@
         <v>39</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="92"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -9194,10 +9377,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="90"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="55" t="s">
         <v>45</v>
       </c>
@@ -9205,9 +9388,9 @@
         <v>39</v>
       </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="92"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -9221,10 +9404,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="90"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="55" t="s">
         <v>45</v>
       </c>
@@ -9232,9 +9415,9 @@
         <v>39</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="92"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -9248,10 +9431,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="90"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="55" t="s">
         <v>51</v>
       </c>
@@ -9259,9 +9442,9 @@
         <v>39</v>
       </c>
       <c r="I14" s="26"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="92"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -9275,10 +9458,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="90"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="55" t="s">
         <v>51</v>
       </c>
@@ -9286,9 +9469,9 @@
         <v>39</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="92"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -9302,10 +9485,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="88" t="s">
+      <c r="E16" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="90"/>
+      <c r="F16" s="92"/>
       <c r="G16" s="55" t="s">
         <v>45</v>
       </c>
@@ -9313,9 +9496,9 @@
         <v>39</v>
       </c>
       <c r="I16" s="26"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="92"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="2"/>
@@ -9329,10 +9512,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="88" t="s">
+      <c r="E17" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="90"/>
+      <c r="F17" s="92"/>
       <c r="G17" s="55" t="s">
         <v>45</v>
       </c>
@@ -9340,9 +9523,9 @@
         <v>39</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="92"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -9356,14 +9539,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="92"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="92"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -9377,14 +9560,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="92"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="92"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -9398,14 +9581,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="92"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="92"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -9419,14 +9602,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="92"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="92"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -9440,14 +9623,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="92"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -9461,14 +9644,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="92"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -9482,14 +9665,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="92"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="92"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -9503,14 +9686,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="92"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="92"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>

--- a/C班内部設計書.xlsx
+++ b/C班内部設計書.xlsx
@@ -22,13 +22,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'処理 (2)'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_内部!$A$1:$Q$36</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511" calcMode="manual" calcCompleted="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -460,10 +459,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チームID　　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -522,6 +517,17 @@
   </si>
   <si>
     <t>5.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1154,6 +1160,33 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1188,33 +1221,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3707,13 +3713,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>80477</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>165541</xdr:rowOff>
+      <xdr:rowOff>120717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>617339</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>75384</xdr:rowOff>
+      <xdr:rowOff>30560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3722,7 +3728,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="506301" y="5566776"/>
+          <a:off x="506301" y="5521952"/>
           <a:ext cx="962685" cy="582196"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -3772,7 +3778,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>17316</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>160447</xdr:rowOff>
+      <xdr:rowOff>115623</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="646331" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -3782,7 +3788,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="656051" y="5729771"/>
+          <a:off x="656051" y="5684947"/>
           <a:ext cx="646331" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3831,7 +3837,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>135997</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>165541</xdr:rowOff>
+      <xdr:rowOff>120717</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3844,7 +3850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="983418" y="5407444"/>
-          <a:ext cx="4226" cy="159332"/>
+          <a:ext cx="4226" cy="114508"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3973,7 +3979,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>135996</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>75384</xdr:rowOff>
+      <xdr:rowOff>30560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -3991,8 +3997,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1332710" y="5803905"/>
-          <a:ext cx="16350" cy="706483"/>
+          <a:off x="1310298" y="5781493"/>
+          <a:ext cx="61174" cy="706483"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4029,7 +4035,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>21750</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>120462</xdr:rowOff>
+      <xdr:rowOff>75638</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4041,8 +4047,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2512762" y="4359592"/>
-          <a:ext cx="454506" cy="2542058"/>
+          <a:off x="2535174" y="4337180"/>
+          <a:ext cx="409682" cy="2542058"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6829,10 +6835,10 @@
       <c r="O1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="65">
+      <c r="P1" s="74">
         <v>42549</v>
       </c>
-      <c r="Q1" s="66"/>
+      <c r="Q1" s="75"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
@@ -6849,11 +6855,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="67" t="s">
+      <c r="O2" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="68"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
@@ -6898,17 +6904,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -6919,15 +6925,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -6938,15 +6944,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -6994,19 +7000,19 @@
       <c r="A10" s="40"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="41"/>
@@ -7015,17 +7021,17 @@
       <c r="A11" s="40"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="41"/>
@@ -7034,17 +7040,17 @@
       <c r="A12" s="40"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="41"/>
@@ -7054,17 +7060,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -7075,15 +7081,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -7094,15 +7100,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -7113,15 +7119,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -7132,15 +7138,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -7171,15 +7177,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
       <c r="M19" s="37"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -7192,13 +7198,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
       <c r="M20" s="37"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -7211,13 +7217,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
       <c r="M21" s="37"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -7230,13 +7236,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
       <c r="M22" s="37"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -7249,13 +7255,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
       <c r="M23" s="37"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -7268,13 +7274,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
       <c r="M24" s="37"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -7287,13 +7293,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
       <c r="M25" s="37"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -7349,14 +7355,14 @@
       <c r="H28" s="2"/>
       <c r="I28" s="54"/>
       <c r="J28" s="53"/>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="64"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="73"/>
       <c r="Q28" s="41"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -7370,18 +7376,18 @@
       <c r="H29" s="2"/>
       <c r="I29" s="54"/>
       <c r="J29" s="53"/>
-      <c r="K29" s="77" t="s">
+      <c r="K29" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78" t="s">
+      <c r="L29" s="66"/>
+      <c r="M29" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78" t="s">
+      <c r="N29" s="66"/>
+      <c r="O29" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="81"/>
+      <c r="P29" s="69"/>
       <c r="Q29" s="41"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7395,12 +7401,12 @@
       <c r="H30" s="2"/>
       <c r="I30" s="54"/>
       <c r="J30" s="53"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="74"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="62"/>
       <c r="Q30" s="41"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7414,12 +7420,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="54"/>
       <c r="J31" s="53"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="74"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="62"/>
       <c r="Q31" s="41"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7433,12 +7439,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="54"/>
       <c r="J32" s="53"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="74"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="62"/>
       <c r="Q32" s="41"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7452,12 +7458,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="54"/>
       <c r="J33" s="53"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="74"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="62"/>
       <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7471,12 +7477,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="54"/>
       <c r="J34" s="53"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="74"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="62"/>
       <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -7490,12 +7496,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="54"/>
       <c r="J35" s="53"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="76"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="64"/>
       <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7519,12 +7525,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
-    <mergeCell ref="O29:P29"/>
     <mergeCell ref="F19:L25"/>
     <mergeCell ref="K28:P28"/>
     <mergeCell ref="P1:Q1"/>
@@ -7532,6 +7532,12 @@
     <mergeCell ref="E5:M7"/>
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
+    <mergeCell ref="O29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7682,7 +7688,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6" s="82"/>
       <c r="O6" s="82"/>
@@ -8445,11 +8451,11 @@
       </c>
       <c r="C6" s="83"/>
       <c r="D6" s="83"/>
-      <c r="E6" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
+      <c r="E6" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="57" t="s">
         <v>8</v>
       </c>
@@ -8471,11 +8477,11 @@
       </c>
       <c r="C7" s="83"/>
       <c r="D7" s="83"/>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="57" t="s">
         <v>7</v>
       </c>
@@ -9072,17 +9078,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9102,7 +9108,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E17" sqref="E17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9299,14 +9305,12 @@
       </c>
       <c r="F9" s="92"/>
       <c r="G9" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="55">
-        <v>1</v>
-      </c>
+      <c r="I9" s="55"/>
       <c r="J9" s="90"/>
       <c r="K9" s="91"/>
       <c r="L9" s="92"/>
@@ -9328,12 +9332,12 @@
       </c>
       <c r="F10" s="92"/>
       <c r="G10" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="26"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="90"/>
       <c r="K10" s="91"/>
       <c r="L10" s="92"/>
@@ -9351,16 +9355,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="90" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F11" s="92"/>
       <c r="G11" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="26"/>
+      <c r="I11" s="55" t="s">
+        <v>55</v>
+      </c>
       <c r="J11" s="90"/>
       <c r="K11" s="91"/>
       <c r="L11" s="92"/>
@@ -9378,16 +9384,16 @@
         <v>4</v>
       </c>
       <c r="E12" s="90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="92"/>
       <c r="G12" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="26"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="90"/>
       <c r="K12" s="91"/>
       <c r="L12" s="92"/>
@@ -9405,16 +9411,16 @@
         <v>5</v>
       </c>
       <c r="E13" s="90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="92"/>
       <c r="G13" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="26"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="90"/>
       <c r="K13" s="91"/>
       <c r="L13" s="92"/>
@@ -9432,16 +9438,16 @@
         <v>6</v>
       </c>
       <c r="E14" s="90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="92"/>
       <c r="G14" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="26"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="90"/>
       <c r="K14" s="91"/>
       <c r="L14" s="92"/>
@@ -9459,16 +9465,16 @@
         <v>7</v>
       </c>
       <c r="E15" s="90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="92"/>
       <c r="G15" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="26"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="90"/>
       <c r="K15" s="91"/>
       <c r="L15" s="92"/>
@@ -9486,16 +9492,18 @@
         <v>8</v>
       </c>
       <c r="E16" s="90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="92"/>
       <c r="G16" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H16" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="26"/>
+      <c r="I16" s="55" t="s">
+        <v>55</v>
+      </c>
       <c r="J16" s="90"/>
       <c r="K16" s="91"/>
       <c r="L16" s="92"/>
@@ -9513,16 +9521,18 @@
         <v>9</v>
       </c>
       <c r="E17" s="90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="92"/>
       <c r="G17" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="26"/>
+      <c r="I17" s="55" t="s">
+        <v>55</v>
+      </c>
       <c r="J17" s="90"/>
       <c r="K17" s="91"/>
       <c r="L17" s="92"/>
@@ -9935,12 +9945,26 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J9:L9"/>
@@ -9954,26 +9978,12 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/C班内部設計書.xlsx
+++ b/C班内部設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'処理 (2)'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_内部!$A$1:$Q$36</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual" calcCompleted="0"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -400,16 +400,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>J1リーグ勝敗予想システム管理テーブル</t>
-    <rPh sb="5" eb="9">
-      <t>ショウハイヨソウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理者データ記入</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -425,13 +415,6 @@
   </si>
   <si>
     <t>NOT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者用パスワード</t>
-    <rPh sb="0" eb="4">
-      <t>カンリシャヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -463,13 +446,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>年度</t>
-    <rPh sb="0" eb="2">
-      <t>ネンド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>節</t>
     <rPh sb="0" eb="1">
       <t>セツ</t>
@@ -491,24 +467,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対戦表ID</t>
-    <rPh sb="0" eb="2">
-      <t>タイセン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戦績ID</t>
-    <rPh sb="0" eb="2">
-      <t>センセキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -527,6 +486,57 @@
     <t>主</t>
     <rPh sb="0" eb="1">
       <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム管理テーブル</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（2）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール管理テーブル</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年</t>
+    <rPh sb="0" eb="1">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アウェイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -976,7 +986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1055,9 +1065,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1160,6 +1167,54 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1187,42 +1242,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1265,7 +1284,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3878,16 +3903,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>58068</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>315803</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>32599</xdr:rowOff>
+      <xdr:rowOff>10187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>655563</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>128886</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>150869</xdr:rowOff>
+      <xdr:rowOff>128457</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3896,7 +3921,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1694127" y="5938099"/>
+          <a:off x="4305097" y="5915687"/>
           <a:ext cx="1381907" cy="454446"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
@@ -3972,56 +3997,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>135996</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>30560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>58067</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>91734</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="241" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="234" idx="2"/>
-          <a:endCxn id="240" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1310298" y="5781493"/>
-          <a:ext cx="61174" cy="706483"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5182,6 +5157,216 @@
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>412174</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>16910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>225258</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>135180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2048233" y="5922410"/>
+          <a:ext cx="1381907" cy="454446"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>同様の処理を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>試合分繰り返す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>135997</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>412174</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76044</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="234" idx="2"/>
+          <a:endCxn id="79" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1495196" y="5596595"/>
+          <a:ext cx="45485" cy="1060589"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>225258</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>69322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>315803</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>69322</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="3"/>
+          <a:endCxn id="240" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3430140" y="6142910"/>
+          <a:ext cx="874957" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -6816,32 +7001,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="52" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="74">
+      <c r="P1" s="68">
         <v>42549</v>
       </c>
-      <c r="Q1" s="75"/>
+      <c r="Q1" s="69"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="2"/>
@@ -6855,14 +7040,14 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="77"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="2"/>
@@ -6876,12 +7061,12 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="50"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="2"/>
@@ -6895,71 +7080,71 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="41"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="41"/>
+      <c r="Q6" s="40"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="41"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="2"/>
@@ -6975,10 +7160,10 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="41"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="40"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="2"/>
@@ -6994,166 +7179,166 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="41"/>
+      <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="41"/>
+      <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="41"/>
+      <c r="Q11" s="40"/>
     </row>
     <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="41"/>
+      <c r="Q12" s="40"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="41"/>
+      <c r="Q13" s="40"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="41"/>
+      <c r="Q14" s="40"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="41"/>
+      <c r="Q15" s="40"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="41"/>
+      <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="41"/>
+      <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="2"/>
@@ -7169,183 +7354,183 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="41"/>
+      <c r="Q18" s="40"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="70" t="s">
+      <c r="E19" s="35"/>
+      <c r="F19" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="37"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="36"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="41"/>
+      <c r="Q19" s="40"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="40"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="37"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="41"/>
+      <c r="Q20" s="40"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="40"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="37"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="36"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="41"/>
+      <c r="Q21" s="40"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="40"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="37"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="41"/>
+      <c r="Q22" s="40"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="40"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="37"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="36"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="41"/>
+      <c r="Q23" s="40"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="37"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="41"/>
+      <c r="Q24" s="40"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="40"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="37"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="36"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="41"/>
+      <c r="Q25" s="40"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="37"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="36"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="41"/>
+      <c r="Q26" s="40"/>
     </row>
     <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="37"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="36"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="41"/>
+      <c r="Q27" s="40"/>
     </row>
     <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="40"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="2"/>
@@ -7353,20 +7538,20 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="71" t="s">
+      <c r="I28" s="53"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="41"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="40"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="2"/>
@@ -7374,24 +7559,24 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="65" t="s">
+      <c r="I29" s="53"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66" t="s">
+      <c r="L29" s="81"/>
+      <c r="M29" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66" t="s">
+      <c r="N29" s="81"/>
+      <c r="O29" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="41"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="40"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="40"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="2"/>
@@ -7399,18 +7584,18 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="41"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="40"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="40"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="2"/>
@@ -7418,18 +7603,18 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="41"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="40"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="2"/>
@@ -7437,18 +7622,18 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="41"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="40"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="2"/>
@@ -7456,18 +7641,18 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="41"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="40"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="40"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="2"/>
@@ -7475,18 +7660,18 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="41"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="2"/>
@@ -7494,37 +7679,43 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="41"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="45"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
+    <mergeCell ref="O29:P29"/>
     <mergeCell ref="F19:L25"/>
     <mergeCell ref="K28:P28"/>
     <mergeCell ref="P1:Q1"/>
@@ -7532,12 +7723,6 @@
     <mergeCell ref="E5:M7"/>
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
-    <mergeCell ref="O29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7555,8 +7740,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7571,25 +7756,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -7604,7 +7789,7 @@
       </c>
       <c r="P1" s="19">
         <f ca="1">TODAY()</f>
-        <v>42549</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7670,54 +7855,54 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84">
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87">
         <v>4</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="31" t="s">
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
+      <c r="M6" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="31" t="s">
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
+      <c r="M7" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -7839,7 +8024,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="24"/>
@@ -7918,7 +8103,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="35" t="s">
+      <c r="P18" s="34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8154,7 +8339,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="35" t="s">
+      <c r="P31" s="34" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8286,19 +8471,19 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
       <c r="O39" s="10"/>
       <c r="P39" s="11"/>
     </row>
@@ -8331,7 +8516,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -8347,32 +8532,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="58" t="s">
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="58" t="s">
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="57" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
@@ -8446,54 +8631,54 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="57" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="57" t="s">
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="57" t="s">
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="57" t="s">
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -8692,7 +8877,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="35" t="s">
+      <c r="P18" s="34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8928,7 +9113,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="35" t="s">
+      <c r="P31" s="34" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9078,17 +9263,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9108,7 +9293,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:F17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9125,25 +9310,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
@@ -9227,14 +9412,14 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -9247,10 +9432,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+        <v>51</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -9266,27 +9451,27 @@
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="22"/>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="101"/>
+      <c r="G8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="96" t="s">
+      <c r="J8" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -9296,24 +9481,24 @@
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="92"/>
+      <c r="E9" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="95"/>
+      <c r="G9" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="54"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -9323,24 +9508,26 @@
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="29">
-        <f t="shared" ref="D10:D25" si="0">ROW()-8</f>
+      <c r="D10" s="28">
+        <f t="shared" ref="D10" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="55" t="s">
+      <c r="E10" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="95"/>
+      <c r="G10" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="95"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -9350,80 +9537,51 @@
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="29">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E11" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="9"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E12" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="9"/>
+      <c r="C12" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="29">
-        <f t="shared" si="0"/>
+      <c r="D13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
+      <c r="E13" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="101"/>
+      <c r="G13" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -9433,24 +9591,25 @@
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E14" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
+      <c r="D14" s="28">
+        <v>1</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="95"/>
+      <c r="G14" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="93"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="95"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -9460,24 +9619,23 @@
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E15" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="92"/>
+      <c r="D15" s="28">
+        <v>2</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="95"/>
+      <c r="G15" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="62"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -9486,27 +9644,24 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="28">
+        <v>3</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="95"/>
+      <c r="G16" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="62"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="2"/>
@@ -9516,26 +9671,25 @@
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E17" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
+      <c r="D17" s="28">
+        <v>4</v>
+      </c>
+      <c r="E17" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="95"/>
+      <c r="G17" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="60"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -9545,18 +9699,25 @@
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
+      <c r="D18" s="28">
+        <v>5</v>
+      </c>
+      <c r="E18" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="95"/>
+      <c r="G18" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -9566,18 +9727,23 @@
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="29">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="92"/>
+      <c r="D19" s="28">
+        <v>6</v>
+      </c>
+      <c r="E19" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="95"/>
+      <c r="G19" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="54"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="62"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -9587,141 +9753,84 @@
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="29">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="9"/>
+      <c r="D20" s="28">
+        <v>7</v>
+      </c>
+      <c r="E20" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="95"/>
+      <c r="G20" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="54"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="62"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="9"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="29">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="9"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="29">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="9"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="29">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="9"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="9"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -9732,14 +9841,14 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -9750,14 +9859,14 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -9768,14 +9877,14 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -9786,14 +9895,14 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -9804,14 +9913,14 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -9822,14 +9931,14 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -9840,14 +9949,14 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -9858,14 +9967,14 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -9876,14 +9985,14 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -9894,14 +10003,14 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -9912,14 +10021,14 @@
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -9944,46 +10053,26 @@
       <c r="P38" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J15:L15"/>
+  <mergeCells count="19">
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/C班内部設計書.xlsx
+++ b/C班内部設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="732" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="732" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -414,10 +414,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NOT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザの選択操作</t>
     <rPh sb="4" eb="6">
       <t>センタク</t>
@@ -464,10 +460,6 @@
     <rPh sb="0" eb="2">
       <t>テンキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -538,6 +530,30 @@
     <rPh sb="0" eb="2">
       <t>ガイブ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1179,6 +1195,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1215,33 +1258,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1287,10 +1303,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1709,15 +1725,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>81190</xdr:colOff>
+      <xdr:colOff>148426</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>42275</xdr:rowOff>
+      <xdr:rowOff>19862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28522</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>751171</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>131922</xdr:rowOff>
+      <xdr:rowOff>94144</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1726,8 +1742,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="294102" y="2417922"/>
-          <a:ext cx="1370479" cy="425824"/>
+          <a:off x="361338" y="2395509"/>
+          <a:ext cx="1241480" cy="410459"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -1770,7 +1786,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>送信ボタン押下</a:t>
+            <a:t>予想開始ボタン押下</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1780,15 +1796,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>127338</xdr:colOff>
+      <xdr:colOff>124086</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>86541</xdr:rowOff>
+      <xdr:rowOff>71343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>132138</xdr:colOff>
+      <xdr:colOff>130040</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>125063</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1799,9 +1815,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="978985" y="3470717"/>
-          <a:ext cx="4800" cy="206611"/>
+        <a:xfrm flipH="1">
+          <a:off x="975733" y="3455519"/>
+          <a:ext cx="5954" cy="107952"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1830,15 +1846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>130639</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>53065</xdr:rowOff>
+      <xdr:colOff>124086</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>132138</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>83944</xdr:rowOff>
+      <xdr:colOff>132837</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61531</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1849,9 +1865,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="982286" y="4109594"/>
-          <a:ext cx="1499" cy="198968"/>
+        <a:xfrm>
+          <a:off x="975733" y="3993144"/>
+          <a:ext cx="8751" cy="124916"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2524,15 +2540,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>90077</xdr:colOff>
+      <xdr:colOff>146106</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>125063</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28522</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>53065</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>740800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104703</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2541,8 +2557,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="302989" y="3677328"/>
-          <a:ext cx="1361592" cy="432266"/>
+          <a:off x="359018" y="3563471"/>
+          <a:ext cx="1233429" cy="429673"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2625,15 +2641,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>80476</xdr:colOff>
+      <xdr:colOff>147712</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152042</xdr:rowOff>
+      <xdr:rowOff>107218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28522</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>751103</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>86541</xdr:rowOff>
+      <xdr:rowOff>71343</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2642,8 +2658,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="293388" y="3031954"/>
-          <a:ext cx="1371193" cy="438763"/>
+          <a:off x="360624" y="2987130"/>
+          <a:ext cx="1242126" cy="468389"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2726,15 +2742,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>78420</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>83944</xdr:rowOff>
+      <xdr:colOff>145656</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>37180</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>34127</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>758753</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>163405</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2743,8 +2759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="291332" y="4308562"/>
-          <a:ext cx="1381907" cy="454447"/>
+          <a:off x="358568" y="4118060"/>
+          <a:ext cx="1251832" cy="438051"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2834,15 +2850,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>296956</xdr:colOff>
+      <xdr:colOff>308161</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>127847</xdr:rowOff>
+      <xdr:rowOff>94230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>380998</xdr:colOff>
+      <xdr:colOff>392203</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2851,7 +2867,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1933015" y="3007759"/>
+          <a:off x="1944220" y="2974142"/>
           <a:ext cx="868454" cy="499681"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -2905,15 +2921,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>71817</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>50933</xdr:rowOff>
+      <xdr:colOff>150258</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>118168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>46048</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>6209</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>777370</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>56863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2922,8 +2938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="284729" y="4947904"/>
-          <a:ext cx="1397378" cy="459540"/>
+          <a:off x="363170" y="4678962"/>
+          <a:ext cx="1265847" cy="442960"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3016,15 +3032,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>127338</xdr:colOff>
+      <xdr:colOff>130040</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>131922</xdr:rowOff>
+      <xdr:rowOff>94144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>127695</xdr:colOff>
+      <xdr:colOff>130431</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152042</xdr:rowOff>
+      <xdr:rowOff>107218</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3036,8 +3052,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="978985" y="2843746"/>
-          <a:ext cx="357" cy="188208"/>
+          <a:off x="981687" y="2805968"/>
+          <a:ext cx="391" cy="181162"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3066,15 +3082,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>130639</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>34127</xdr:rowOff>
+      <xdr:colOff>132837</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>163405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>131771</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>50933</xdr:rowOff>
+      <xdr:colOff>144447</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>118168</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3086,8 +3102,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="982286" y="4763009"/>
-          <a:ext cx="1132" cy="184895"/>
+          <a:off x="984484" y="4556111"/>
+          <a:ext cx="11610" cy="122851"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3116,15 +3132,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>17317</xdr:colOff>
+      <xdr:colOff>48402</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>104876</xdr:rowOff>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>22117</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>143398</xdr:rowOff>
+      <xdr:colOff>54356</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3135,9 +3151,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4006611" y="3489052"/>
-          <a:ext cx="4800" cy="206611"/>
+        <a:xfrm flipH="1">
+          <a:off x="4037696" y="3417794"/>
+          <a:ext cx="5954" cy="123265"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3166,15 +3182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>20618</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>71400</xdr:rowOff>
+      <xdr:colOff>48402</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>22117</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>68663</xdr:rowOff>
+      <xdr:colOff>57153</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3185,9 +3201,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4009912" y="4127929"/>
-          <a:ext cx="1499" cy="165352"/>
+        <a:xfrm>
+          <a:off x="4037696" y="3966882"/>
+          <a:ext cx="8751" cy="135898"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3216,15 +3232,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>123772</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>2289</xdr:rowOff>
+      <xdr:colOff>224625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>695273</xdr:colOff>
+      <xdr:colOff>668498</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>104876</xdr:rowOff>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3233,8 +3249,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3328654" y="3050289"/>
-          <a:ext cx="1355913" cy="438763"/>
+          <a:off x="3429507" y="2994259"/>
+          <a:ext cx="1228285" cy="423535"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3317,15 +3333,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>121716</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>68663</xdr:rowOff>
+      <xdr:colOff>222570</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>703931</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>18846</xdr:rowOff>
+      <xdr:colOff>676148</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3334,8 +3350,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3326598" y="4293281"/>
-          <a:ext cx="1366627" cy="454447"/>
+          <a:off x="3427452" y="4102780"/>
+          <a:ext cx="1237990" cy="424396"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3425,15 +3441,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>115113</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>46857</xdr:rowOff>
+      <xdr:colOff>215966</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>712799</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>2133</xdr:rowOff>
+      <xdr:colOff>683559</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3442,8 +3458,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3319995" y="4943828"/>
-          <a:ext cx="1382098" cy="459540"/>
+          <a:off x="3420848" y="4674886"/>
+          <a:ext cx="1252005" cy="423790"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3536,15 +3552,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>20618</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>18846</xdr:rowOff>
+      <xdr:colOff>57153</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>21750</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>46857</xdr:rowOff>
+      <xdr:colOff>57557</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114092</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3556,8 +3572,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4009912" y="4747728"/>
-          <a:ext cx="1132" cy="196100"/>
+          <a:off x="4046447" y="4527176"/>
+          <a:ext cx="404" cy="147710"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3585,16 +3601,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28522</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>751103</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>35248</xdr:rowOff>
+      <xdr:rowOff>5237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>296956</xdr:colOff>
+      <xdr:colOff>308161</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>41512</xdr:rowOff>
+      <xdr:rowOff>7895</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3606,8 +3622,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1664581" y="3251336"/>
-          <a:ext cx="268434" cy="6264"/>
+          <a:off x="1602750" y="3221325"/>
+          <a:ext cx="341470" cy="2658"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3635,16 +3651,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28522</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>3310</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>740800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>313762</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>5020</xdr:rowOff>
+      <xdr:colOff>302556</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>59339</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3655,9 +3671,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1664581" y="3891751"/>
-          <a:ext cx="285240" cy="1710"/>
+        <a:xfrm>
+          <a:off x="1592447" y="3778308"/>
+          <a:ext cx="346168" cy="1384"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3685,16 +3701,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>37180</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>143080</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>758753</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>112468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>324968</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>148988</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>115370</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3706,8 +3722,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1673239" y="4535786"/>
-          <a:ext cx="287788" cy="5908"/>
+          <a:off x="1610400" y="4337086"/>
+          <a:ext cx="350627" cy="2902"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3736,15 +3752,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>80477</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>120717</xdr:rowOff>
+      <xdr:colOff>69271</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>617339</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>30560</xdr:rowOff>
+      <xdr:colOff>616323</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3753,8 +3769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="506301" y="5521952"/>
-          <a:ext cx="962685" cy="582196"/>
+          <a:off x="495095" y="5253012"/>
+          <a:ext cx="972875" cy="574048"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3800,12 +3816,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>17316</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>115623</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>207816</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>160448</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="646331" cy="242374"/>
+    <xdr:ext cx="778301" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="235" name="テキスト ボックス 234"/>
@@ -3813,8 +3829,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="656051" y="5684947"/>
-          <a:ext cx="646331" cy="242374"/>
+          <a:off x="633640" y="5393595"/>
+          <a:ext cx="778301" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3836,7 +3852,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -3854,15 +3870,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>131771</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>6209</xdr:rowOff>
+      <xdr:colOff>129886</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>56863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>135997</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>120717</xdr:rowOff>
+      <xdr:colOff>144447</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19865</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3873,9 +3889,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="983418" y="5407444"/>
-          <a:ext cx="4226" cy="114508"/>
+        <a:xfrm flipH="1">
+          <a:off x="981533" y="5121922"/>
+          <a:ext cx="14561" cy="131090"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3904,15 +3920,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>315803</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>10187</xdr:rowOff>
+      <xdr:colOff>416656</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>128886</xdr:colOff>
+      <xdr:colOff>168087</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>128457</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3921,8 +3937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4305097" y="5915687"/>
-          <a:ext cx="1381907" cy="454446"/>
+          <a:off x="4405950" y="5826039"/>
+          <a:ext cx="1320255" cy="482873"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -4002,15 +4018,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>617339</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>2133</xdr:rowOff>
+      <xdr:colOff>616323</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>21750</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>75638</xdr:rowOff>
+      <xdr:colOff>57557</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138802</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4022,8 +4038,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2535174" y="4337180"/>
-          <a:ext cx="409682" cy="2542058"/>
+          <a:off x="2536731" y="4029916"/>
+          <a:ext cx="441360" cy="2578881"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4052,15 +4068,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>703931</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>126576</xdr:rowOff>
+      <xdr:colOff>676148</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>127799</xdr:rowOff>
+      <xdr:colOff>280145</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>92958</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4071,9 +4087,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4693225" y="4519282"/>
-          <a:ext cx="461480" cy="1223"/>
+        <a:xfrm>
+          <a:off x="4665442" y="4314978"/>
+          <a:ext cx="388409" cy="2598"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4102,15 +4118,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>133373</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>143398</xdr:rowOff>
+      <xdr:colOff>223020</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>695273</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>71400</xdr:rowOff>
+      <xdr:colOff>658195</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4119,8 +4135,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3338255" y="3695663"/>
-          <a:ext cx="1346312" cy="432266"/>
+          <a:off x="3427902" y="3541059"/>
+          <a:ext cx="1219587" cy="425823"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -4203,15 +4219,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>695273</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>23355</xdr:rowOff>
+      <xdr:colOff>658195</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>369792</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25722</xdr:rowOff>
+      <xdr:colOff>280146</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>36928</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4223,8 +4239,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4684567" y="3911796"/>
-          <a:ext cx="458931" cy="2367"/>
+          <a:off x="4647489" y="3753971"/>
+          <a:ext cx="406363" cy="3310"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4253,15 +4269,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>695273</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>48135</xdr:rowOff>
+      <xdr:colOff>668498</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>148988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>369793</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53583</xdr:rowOff>
+      <xdr:colOff>280146</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158027</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4273,8 +4289,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4684567" y="3264223"/>
-          <a:ext cx="458932" cy="5448"/>
+          <a:off x="4657792" y="3196988"/>
+          <a:ext cx="396060" cy="9039"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4303,15 +4319,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>313762</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>89645</xdr:rowOff>
+      <xdr:colOff>302556</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>397804</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85062</xdr:rowOff>
+      <xdr:colOff>386598</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>141091</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4320,7 +4336,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1949821" y="3641910"/>
+          <a:off x="1938615" y="3529851"/>
           <a:ext cx="868454" cy="499681"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -4375,14 +4391,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>324968</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409010</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>62652</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>29034</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4391,7 +4407,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1961027" y="4291853"/>
+          <a:off x="1961027" y="4090147"/>
           <a:ext cx="868454" cy="499681"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -4445,15 +4461,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>127695</xdr:colOff>
+      <xdr:colOff>130431</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>111194</xdr:rowOff>
+      <xdr:rowOff>42428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>129580</xdr:colOff>
+      <xdr:colOff>143489</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>84857</xdr:rowOff>
+      <xdr:rowOff>60908</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4465,8 +4481,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="979342" y="2318753"/>
-          <a:ext cx="1885" cy="141751"/>
+          <a:off x="982078" y="2249987"/>
+          <a:ext cx="13058" cy="186568"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4495,15 +4511,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>369793</xdr:colOff>
+      <xdr:colOff>280146</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>453835</xdr:colOff>
+      <xdr:colOff>364188</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>129887</xdr:rowOff>
+      <xdr:rowOff>62652</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4512,7 +4528,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5143499" y="3014382"/>
+          <a:off x="5053852" y="2947147"/>
           <a:ext cx="868454" cy="499681"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -4566,15 +4582,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>369792</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>112057</xdr:rowOff>
+      <xdr:colOff>280146</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>453834</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>107474</xdr:rowOff>
+      <xdr:colOff>364188</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4583,7 +4599,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5143498" y="3664322"/>
+          <a:off x="5053852" y="3507440"/>
           <a:ext cx="868454" cy="499681"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -4637,15 +4653,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:colOff>280145</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>465041</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>40240</xdr:rowOff>
+      <xdr:colOff>364187</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6622</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4654,7 +4670,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5154705" y="4269441"/>
+          <a:off x="5053851" y="4067735"/>
           <a:ext cx="868454" cy="499681"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -4707,16 +4723,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28522</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>751171</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>87099</xdr:rowOff>
+      <xdr:rowOff>57004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>17317</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>2289</xdr:rowOff>
+      <xdr:colOff>54356</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114347</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4728,8 +4744,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1664581" y="2630834"/>
-          <a:ext cx="2342030" cy="419455"/>
+          <a:off x="1602818" y="2600739"/>
+          <a:ext cx="2440832" cy="393520"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4886,11 +4902,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100851</xdr:colOff>
+      <xdr:colOff>156879</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="679610" cy="259045"/>
+    <xdr:ext cx="907679" cy="259045"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
@@ -4898,8 +4914,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952498" y="2812676"/>
-          <a:ext cx="679610" cy="259045"/>
+          <a:off x="1008526" y="2779058"/>
+          <a:ext cx="907679" cy="259045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4921,7 +4937,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -4937,10 +4953,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>784409</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56027</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="749692" cy="259045"/>
     <xdr:sp macro="" textlink="">
@@ -4950,7 +4966,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3989291" y="2801471"/>
+          <a:off x="4045321" y="2767854"/>
           <a:ext cx="749692" cy="259045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4990,86 +5006,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>75995</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>91531</xdr:rowOff>
+      <xdr:colOff>161161</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>42227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>24041</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>26029</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="288907" y="1290560"/>
-          <a:ext cx="1371193" cy="438763"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>節を選択</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>82718</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>8608</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>30764</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>764552</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>111194</xdr:rowOff>
+      <xdr:rowOff>42428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5078,8 +5023,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295630" y="1879990"/>
-          <a:ext cx="1371193" cy="438763"/>
+          <a:off x="374073" y="1913609"/>
+          <a:ext cx="1242126" cy="336378"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -5131,66 +5076,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>122857</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>26029</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>129580</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>8608</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="144" name="カギ線コネクタ 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="80" idx="2"/>
-          <a:endCxn id="143" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="974504" y="1729323"/>
-          <a:ext cx="6723" cy="150667"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>412174</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>16910</xdr:rowOff>
+      <xdr:colOff>513028</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>225258</xdr:colOff>
+      <xdr:colOff>347383</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>135180</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5199,8 +5094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2048233" y="5922410"/>
-          <a:ext cx="1381907" cy="454446"/>
+          <a:off x="2149087" y="5832762"/>
+          <a:ext cx="1403178" cy="476150"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -5273,7 +5168,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>試合分繰り返す</a:t>
+            <a:t>試合分繰返す</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -5290,15 +5185,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>135997</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>30559</xdr:rowOff>
+      <xdr:colOff>129887</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>412174</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76044</xdr:rowOff>
+      <xdr:colOff>513029</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165336</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5310,8 +5205,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1495196" y="5596595"/>
-          <a:ext cx="45485" cy="1060589"/>
+          <a:off x="1443422" y="5365171"/>
+          <a:ext cx="243777" cy="1167554"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5340,15 +5235,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>225258</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>69322</xdr:rowOff>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>315803</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>69322</xdr:rowOff>
+      <xdr:colOff>416656</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165337</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5360,13 +5255,11 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3430140" y="6142910"/>
-          <a:ext cx="874957" cy="0"/>
+          <a:off x="3552265" y="6067476"/>
+          <a:ext cx="853685" cy="3361"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -5387,6 +5280,127 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>143489</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>151339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>148360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>42227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="174" idx="2"/>
+          <a:endCxn id="143" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="995136" y="1686545"/>
+          <a:ext cx="4871" cy="227064"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>166355</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>769100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>151339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="フローチャート : 手操作入力 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="379267" y="1311088"/>
+          <a:ext cx="1241480" cy="375457"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>決定ボタン押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5791,15 +5805,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>59532</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>35717</xdr:rowOff>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5808,7 +5822,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="273845" y="1559717"/>
+          <a:off x="369095" y="3012280"/>
           <a:ext cx="1393031" cy="523877"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
@@ -5852,7 +5866,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>送信ボタンの押下</a:t>
+            <a:t>送信ボタン押下</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -5868,66 +5882,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>113109</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>113111</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="30" idx="2"/>
-          <a:endCxn id="115" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="970359" y="2083594"/>
-          <a:ext cx="2" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>59532</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>700</xdr:rowOff>
+      <xdr:colOff>154783</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>131668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>16509</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>102392</xdr:rowOff>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66672</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5936,7 +5900,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="273845" y="4525075"/>
+          <a:off x="369096" y="3989293"/>
           <a:ext cx="1385727" cy="435067"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
@@ -6016,154 +5980,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>71436</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="114" name="グループ化 113"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="226219" y="2512219"/>
-          <a:ext cx="1488280" cy="845344"/>
-          <a:chOff x="337151" y="3825312"/>
-          <a:chExt cx="1367117" cy="571501"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="115" name="ひし形 114"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="337151" y="3825312"/>
-            <a:ext cx="1367117" cy="571501"/>
-          </a:xfrm>
-          <a:prstGeom prst="diamond">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="116" name="テキスト ボックス 115"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="442271" y="3920639"/>
-            <a:ext cx="1178186" cy="392415"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>選択漏れがない</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>109459</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>204710</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>113109</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>700</xdr:rowOff>
+      <xdr:colOff>208361</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>131668</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="120" name="カギ線コネクタ 220"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="115" idx="2"/>
+          <a:stCxn id="30" idx="2"/>
           <a:endCxn id="45" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="966709" y="3357563"/>
-          <a:ext cx="3650" cy="1167512"/>
+          <a:off x="1061960" y="3536157"/>
+          <a:ext cx="3651" cy="453136"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6192,269 +6031,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>107155</xdr:rowOff>
+      <xdr:colOff>511970</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>718977</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>42160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="フローチャート : 定義済み処理 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1762125" y="3798093"/>
-          <a:ext cx="1385727" cy="435067"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>誤った項目に</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>エラー表示</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>71436</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>77391</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>26114</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>107155</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="115" idx="3"/>
-          <a:endCxn id="126" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1714499" y="2934891"/>
-          <a:ext cx="740490" cy="863202"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>35717</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="378758" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="テキスト ボックス 129"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="988218" y="3393280"/>
-          <a:ext cx="378758" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Yes</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="350096" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="テキスト ボックス 130"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1678781" y="2690812"/>
-          <a:ext cx="350096" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>No</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>416719</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>392907</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>107154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6463,8 +6048,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2059782" y="4476750"/>
-          <a:ext cx="762000" cy="523874"/>
+          <a:off x="2155033" y="3940968"/>
+          <a:ext cx="845342" cy="523874"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -6507,7 +6092,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>戦績</a:t>
+            <a:t>結果・天気</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6517,15 +6102,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>16509</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>416719</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>51546</xdr:rowOff>
+      <xdr:colOff>511970</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15827</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6537,7 +6122,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1659572" y="4738687"/>
+          <a:off x="1754823" y="4202905"/>
           <a:ext cx="400210" cy="3922"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6567,14 +6152,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>109459</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>102392</xdr:rowOff>
+      <xdr:colOff>190421</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>118983</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>204710</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>57850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6586,9 +6171,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="966709" y="4960142"/>
-          <a:ext cx="9524" cy="622208"/>
+        <a:xfrm flipH="1">
+          <a:off x="1047671" y="4424360"/>
+          <a:ext cx="14289" cy="491240"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6617,14 +6202,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>69056</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>140494</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>57850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>26033</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:colOff>97471</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>159542</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6634,7 +6219,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="283369" y="5582350"/>
+          <a:off x="354807" y="4915600"/>
           <a:ext cx="1385727" cy="435067"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
@@ -6690,6 +6275,262 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="フローチャート : 手操作入力 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="369094" y="1309686"/>
+          <a:ext cx="1393031" cy="523877"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>決定ボタン押下</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>164308</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>141193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121285</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="フローチャート : 定義済み処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="378621" y="2165256"/>
+          <a:ext cx="1385727" cy="435067"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>対戦表の表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>208360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>214235</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>141193</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1065610" y="1833563"/>
+          <a:ext cx="5875" cy="331693"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>208361</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>214235</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1065611" y="2600323"/>
+          <a:ext cx="5874" cy="464345"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6988,7 +6829,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="O2" sqref="O2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7020,10 +6861,10 @@
       <c r="O1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="68">
+      <c r="P1" s="77">
         <v>42549</v>
       </c>
-      <c r="Q1" s="69"/>
+      <c r="Q1" s="78"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="39"/>
@@ -7040,11 +6881,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="80"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="39"/>
@@ -7089,17 +6930,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -7110,15 +6951,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -7129,15 +6970,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -7185,19 +7026,19 @@
       <c r="A10" s="39"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="40"/>
@@ -7206,17 +7047,17 @@
       <c r="A11" s="39"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="40"/>
@@ -7225,17 +7066,17 @@
       <c r="A12" s="39"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="40"/>
@@ -7245,17 +7086,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -7266,15 +7107,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -7285,15 +7126,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -7304,15 +7145,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -7323,15 +7164,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -7362,15 +7203,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="35"/>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
       <c r="M19" s="36"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -7383,13 +7224,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
       <c r="M20" s="36"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -7402,13 +7243,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
       <c r="M21" s="36"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -7421,13 +7262,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
       <c r="M22" s="36"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -7440,13 +7281,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="36"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
       <c r="M23" s="36"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -7459,13 +7300,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="36"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
       <c r="M24" s="36"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -7478,13 +7319,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="36"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
       <c r="M25" s="36"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -7540,14 +7381,14 @@
       <c r="H28" s="2"/>
       <c r="I28" s="53"/>
       <c r="J28" s="52"/>
-      <c r="K28" s="65" t="s">
+      <c r="K28" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="67"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="76"/>
       <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -7561,18 +7402,18 @@
       <c r="H29" s="2"/>
       <c r="I29" s="53"/>
       <c r="J29" s="52"/>
-      <c r="K29" s="80" t="s">
+      <c r="K29" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81" t="s">
+      <c r="L29" s="69"/>
+      <c r="M29" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81" t="s">
+      <c r="N29" s="69"/>
+      <c r="O29" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="84"/>
+      <c r="P29" s="72"/>
       <c r="Q29" s="40"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7586,12 +7427,12 @@
       <c r="H30" s="2"/>
       <c r="I30" s="53"/>
       <c r="J30" s="52"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="77"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="65"/>
       <c r="Q30" s="40"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7605,12 +7446,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="53"/>
       <c r="J31" s="52"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="77"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="65"/>
       <c r="Q31" s="40"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7624,12 +7465,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="53"/>
       <c r="J32" s="52"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="77"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="65"/>
       <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7643,12 +7484,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="53"/>
       <c r="J33" s="52"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="77"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="65"/>
       <c r="Q33" s="40"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -7662,12 +7503,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="53"/>
       <c r="J34" s="52"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="77"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="65"/>
       <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -7681,12 +7522,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="53"/>
       <c r="J35" s="52"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="79"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="67"/>
       <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7710,12 +7551,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
-    <mergeCell ref="O29:P29"/>
     <mergeCell ref="F19:L25"/>
     <mergeCell ref="K28:P28"/>
     <mergeCell ref="P1:Q1"/>
@@ -7723,6 +7558,12 @@
     <mergeCell ref="E5:M7"/>
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
+    <mergeCell ref="O29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7740,8 +7581,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="U42" sqref="U42"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7788,8 +7629,7 @@
         <v>32</v>
       </c>
       <c r="P1" s="19">
-        <f ca="1">TODAY()</f>
-        <v>42550</v>
+        <v>42549</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7873,7 +7713,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="85" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N6" s="85"/>
       <c r="O6" s="85"/>
@@ -7887,7 +7727,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="86"/>
       <c r="E7" s="87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="88"/>
       <c r="G7" s="88"/>
@@ -7899,7 +7739,7 @@
         <v>7</v>
       </c>
       <c r="M7" s="85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
@@ -8517,7 +8357,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8636,11 +8476,11 @@
       </c>
       <c r="C6" s="86"/>
       <c r="D6" s="86"/>
-      <c r="E6" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
+      <c r="E6" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
       <c r="H6" s="56" t="s">
         <v>8</v>
       </c>
@@ -8662,11 +8502,11 @@
       </c>
       <c r="C7" s="86"/>
       <c r="D7" s="86"/>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="56" t="s">
         <v>7</v>
       </c>
@@ -9263,17 +9103,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9292,8 +9132,8 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9301,7 +9141,7 @@
     <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
     <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
     <col min="5" max="6" width="10.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
     <col min="8" max="15" width="10.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="2.25" style="1"/>
@@ -9432,7 +9272,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
@@ -9457,7 +9297,7 @@
       <c r="E8" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="29" t="s">
         <v>19</v>
       </c>
@@ -9470,8 +9310,8 @@
       <c r="J8" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="100"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -9486,14 +9326,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="95"/>
       <c r="G9" s="54" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="93"/>
@@ -9513,17 +9353,17 @@
         <v>2</v>
       </c>
       <c r="E10" s="93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="95"/>
       <c r="G10" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J10" s="93"/>
       <c r="K10" s="94"/>
@@ -9542,20 +9382,22 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="7"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="10"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
@@ -9567,7 +9409,7 @@
       <c r="E13" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="101"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="63" t="s">
         <v>19</v>
       </c>
@@ -9580,8 +9422,8 @@
       <c r="J13" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="100"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -9595,17 +9437,17 @@
         <v>1</v>
       </c>
       <c r="E14" s="93" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" s="95"/>
       <c r="G14" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J14" s="93"/>
       <c r="K14" s="94"/>
@@ -9623,14 +9465,14 @@
         <v>2</v>
       </c>
       <c r="E15" s="93" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F15" s="95"/>
       <c r="G15" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" s="54" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="60"/>
@@ -9649,14 +9491,14 @@
         <v>3</v>
       </c>
       <c r="E16" s="93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="95"/>
       <c r="G16" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="54" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I16" s="54"/>
       <c r="J16" s="60"/>
@@ -9675,17 +9517,17 @@
         <v>4</v>
       </c>
       <c r="E17" s="93" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F17" s="95"/>
       <c r="G17" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="54" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I17" s="54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J17" s="60"/>
       <c r="K17" s="61"/>
@@ -9703,17 +9545,17 @@
         <v>5</v>
       </c>
       <c r="E18" s="93" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" s="95"/>
       <c r="G18" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J18" s="60"/>
       <c r="K18" s="61"/>
@@ -9731,14 +9573,14 @@
         <v>6</v>
       </c>
       <c r="E19" s="93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="95"/>
       <c r="G19" s="54" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="H19" s="54" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="I19" s="54"/>
       <c r="J19" s="60"/>
@@ -9757,19 +9599,20 @@
         <v>7</v>
       </c>
       <c r="E20" s="93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="95"/>
       <c r="G20" s="54" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="H20" s="54" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="I20" s="54"/>
       <c r="J20" s="60"/>
       <c r="K20" s="61"/>
       <c r="L20" s="62"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
@@ -9779,6 +9622,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="7"/>
+      <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
@@ -9788,6 +9632,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
@@ -9797,6 +9642,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
+      <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
@@ -9807,6 +9653,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
+      <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
@@ -9817,6 +9664,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
+      <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
@@ -10054,12 +9902,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J9:L9"/>
@@ -10068,11 +9915,12 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
